--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>0.8888941121140828</v>
       </c>
       <c r="D2">
-        <v>0.9035708640324996</v>
+        <v>0.9035708640324998</v>
       </c>
       <c r="E2">
         <v>0.9081467380776238</v>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9149946949313683</v>
+        <v>0.9149946949313684</v>
       </c>
       <c r="K2">
         <v>0.9165598837649016</v>
@@ -442,7 +442,7 @@
         <v>0.9210536402224813</v>
       </c>
       <c r="M2">
-        <v>0.8988751223301422</v>
+        <v>0.8988751223301423</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9069917764836491</v>
+        <v>0.9069917764836453</v>
       </c>
       <c r="D3">
-        <v>0.9200379190216206</v>
+        <v>0.9200379190216167</v>
       </c>
       <c r="E3">
-        <v>0.9236884691467824</v>
+        <v>0.9236884691467786</v>
       </c>
       <c r="F3">
-        <v>0.9049232784008481</v>
+        <v>0.9049232784008435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9303845725914035</v>
+        <v>0.9303845725913999</v>
       </c>
       <c r="K3">
-        <v>0.9318076310490212</v>
+        <v>0.9318076310490173</v>
       </c>
       <c r="L3">
-        <v>0.9354008003900838</v>
+        <v>0.9354008003900801</v>
       </c>
       <c r="M3">
-        <v>0.9169369057679166</v>
+        <v>0.9169369057679126</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9178261759716067</v>
+        <v>0.9178261759716096</v>
       </c>
       <c r="D4">
-        <v>0.9299079093223268</v>
+        <v>0.9299079093223297</v>
       </c>
       <c r="E4">
-        <v>0.9330078111227299</v>
+        <v>0.9330078111227322</v>
       </c>
       <c r="F4">
-        <v>0.9165268489988672</v>
+        <v>0.9165268489988699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9395941283206357</v>
+        <v>0.9395941283206385</v>
       </c>
       <c r="K4">
-        <v>0.9409329909691961</v>
+        <v>0.9409329909691987</v>
       </c>
       <c r="L4">
-        <v>0.9439881862251837</v>
+        <v>0.943988186225186</v>
       </c>
       <c r="M4">
-        <v>0.9277493275728612</v>
+        <v>0.9277493275728639</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9222014544204079</v>
+        <v>0.9222014544204101</v>
       </c>
       <c r="D5">
-        <v>0.9338960095862412</v>
+        <v>0.9338960095862431</v>
       </c>
       <c r="E5">
-        <v>0.9367741187242392</v>
+        <v>0.9367741187242408</v>
       </c>
       <c r="F5">
-        <v>0.9212145473444606</v>
+        <v>0.9212145473444627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9433119713628813</v>
+        <v>0.9433119713628834</v>
       </c>
       <c r="K5">
-        <v>0.9446170090472588</v>
+        <v>0.9446170090472606</v>
       </c>
       <c r="L5">
-        <v>0.9474550954015525</v>
+        <v>0.9474550954015539</v>
       </c>
       <c r="M5">
-        <v>0.9321156679637328</v>
+        <v>0.9321156679637349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9229262972429313</v>
+        <v>0.9229262972429286</v>
       </c>
       <c r="D6">
-        <v>0.9345568302759808</v>
+        <v>0.9345568302759779</v>
       </c>
       <c r="E6">
-        <v>0.9373982240750075</v>
+        <v>0.9373982240750054</v>
       </c>
       <c r="F6">
-        <v>0.9219912591640826</v>
+        <v>0.9219912591640803</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9439278144235169</v>
+        <v>0.9439278144235143</v>
       </c>
       <c r="K6">
-        <v>0.9452272578142807</v>
+        <v>0.9452272578142782</v>
       </c>
       <c r="L6">
-        <v>0.9480293811106729</v>
+        <v>0.9480293811106708</v>
       </c>
       <c r="M6">
-        <v>0.9328390276352821</v>
+        <v>0.9328390276352797</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9178853096113809</v>
+        <v>0.9178853096113784</v>
       </c>
       <c r="D7">
-        <v>0.9299618016221483</v>
+        <v>0.9299618016221459</v>
       </c>
       <c r="E7">
-        <v>0.9330587037566102</v>
+        <v>0.9330587037566082</v>
       </c>
       <c r="F7">
-        <v>0.9165901976918446</v>
+        <v>0.9165901976918421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9396443819523252</v>
+        <v>0.9396443819523229</v>
       </c>
       <c r="K7">
-        <v>0.9409827867849958</v>
+        <v>0.9409827867849934</v>
       </c>
       <c r="L7">
-        <v>0.9440350473220401</v>
+        <v>0.944035047322038</v>
       </c>
       <c r="M7">
-        <v>0.9278083406004376</v>
+        <v>0.9278083406004354</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8952125768145015</v>
+        <v>0.8952125768144981</v>
       </c>
       <c r="D8">
-        <v>0.9093170706902549</v>
+        <v>0.9093170706902518</v>
       </c>
       <c r="E8">
-        <v>0.9135690067085251</v>
+        <v>0.9135690067085223</v>
       </c>
       <c r="F8">
-        <v>0.8923137867837062</v>
+        <v>0.8923137867837028</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9203683498951684</v>
+        <v>0.9203683498951649</v>
       </c>
       <c r="K8">
-        <v>0.9218836945616116</v>
+        <v>0.9218836945616086</v>
       </c>
       <c r="L8">
-        <v>0.9260626710644728</v>
+        <v>0.9260626710644702</v>
       </c>
       <c r="M8">
-        <v>0.9051812117340867</v>
+        <v>0.9051812117340834</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8465548619148422</v>
+        <v>0.8465548619148396</v>
       </c>
       <c r="D9">
-        <v>0.8651604083230847</v>
+        <v>0.8651604083230822</v>
       </c>
       <c r="E9">
-        <v>0.8719377757855343</v>
+        <v>0.8719377757855319</v>
       </c>
       <c r="F9">
-        <v>0.8402582336008712</v>
+        <v>0.8402582336008682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8789932328779928</v>
+        <v>0.8789932328779905</v>
       </c>
       <c r="K9">
-        <v>0.8808993045569048</v>
+        <v>0.8808993045569024</v>
       </c>
       <c r="L9">
-        <v>0.8875175286188605</v>
+        <v>0.8875175286188581</v>
       </c>
       <c r="M9">
-        <v>0.8566117285431359</v>
+        <v>0.8566117285431334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.80334198877979</v>
+        <v>0.8033419887797896</v>
       </c>
       <c r="D10">
-        <v>0.8261608837074007</v>
+        <v>0.8261608837074004</v>
       </c>
       <c r="E10">
-        <v>0.8352577026482757</v>
+        <v>0.8352577026482753</v>
       </c>
       <c r="F10">
-        <v>0.7940082938754217</v>
+        <v>0.7940082938754213</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8423154726023873</v>
+        <v>0.842315472602387</v>
       </c>
       <c r="K10">
-        <v>0.8445838539924755</v>
+        <v>0.8445838539924753</v>
       </c>
       <c r="L10">
-        <v>0.8534109695335352</v>
+        <v>0.8534109695335349</v>
       </c>
       <c r="M10">
-        <v>0.8134536797270834</v>
+        <v>0.8134536797270827</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7794084863284435</v>
+        <v>0.7794084863284426</v>
       </c>
       <c r="D11">
-        <v>0.8046686230682235</v>
+        <v>0.8046686230682222</v>
       </c>
       <c r="E11">
-        <v>0.8150905980172463</v>
+        <v>0.8150905980172453</v>
       </c>
       <c r="F11">
-        <v>0.7683557070082789</v>
+        <v>0.7683557070082776</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8220564797627856</v>
+        <v>0.8220564797627846</v>
       </c>
       <c r="K11">
-        <v>0.8245328814976264</v>
+        <v>0.8245328814976253</v>
       </c>
       <c r="L11">
-        <v>0.8346077148420139</v>
+        <v>0.8346077148420129</v>
       </c>
       <c r="M11">
-        <v>0.789533831804307</v>
+        <v>0.7895338318043059</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7691541830514059</v>
+        <v>0.7691541830514008</v>
       </c>
       <c r="D12">
-        <v>0.7954870258732922</v>
+        <v>0.7954870258732873</v>
       </c>
       <c r="E12">
-        <v>0.8064870539410506</v>
+        <v>0.8064870539410461</v>
       </c>
       <c r="F12">
-        <v>0.7573520564680152</v>
+        <v>0.7573520564680097</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8133923979864462</v>
+        <v>0.8133923979864415</v>
       </c>
       <c r="K12">
-        <v>0.8159597090032907</v>
+        <v>0.8159597090032861</v>
       </c>
       <c r="L12">
-        <v>0.8265754682569816</v>
+        <v>0.8265754682569774</v>
       </c>
       <c r="M12">
-        <v>0.7792802796127086</v>
+        <v>0.7792802796127034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7714332547928734</v>
+        <v>0.7714332547928701</v>
       </c>
       <c r="D13">
-        <v>0.7975262209074632</v>
+        <v>0.7975262209074601</v>
       </c>
       <c r="E13">
-        <v>0.8083972077735136</v>
+        <v>0.8083972077735105</v>
       </c>
       <c r="F13">
-        <v>0.7597984503474436</v>
+        <v>0.7597984503474403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8153171289638583</v>
+        <v>0.8153171289638551</v>
       </c>
       <c r="K13">
-        <v>0.8178641385173777</v>
+        <v>0.8178641385173747</v>
       </c>
       <c r="L13">
-        <v>0.8283593226768057</v>
+        <v>0.8283593226768026</v>
       </c>
       <c r="M13">
-        <v>0.7815594869733716</v>
+        <v>0.7815594869733685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7785946565466284</v>
+        <v>0.7785946565466306</v>
       </c>
       <c r="D14">
-        <v>0.8039393175006068</v>
+        <v>0.8039393175006091</v>
       </c>
       <c r="E14">
-        <v>0.8144069333829623</v>
+        <v>0.8144069333829643</v>
       </c>
       <c r="F14">
-        <v>0.7674827224083722</v>
+        <v>0.7674827224083747</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8213684824039411</v>
+        <v>0.8213684824039432</v>
       </c>
       <c r="K14">
-        <v>0.8238520587573226</v>
+        <v>0.8238520587573245</v>
       </c>
       <c r="L14">
-        <v>0.8339696761252412</v>
+        <v>0.8339696761252432</v>
       </c>
       <c r="M14">
-        <v>0.7887201856331825</v>
+        <v>0.7887201856331848</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>0.7827973305558958</v>
       </c>
       <c r="D15">
-        <v>0.8077066093334143</v>
+        <v>0.8077066093334144</v>
       </c>
       <c r="E15">
         <v>0.8179389589269239</v>
       </c>
       <c r="F15">
-        <v>0.771990326823041</v>
+        <v>0.7719903268230407</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>0.8273686161271803</v>
       </c>
       <c r="L15">
-        <v>0.8372655575300513</v>
+        <v>0.8372655575300514</v>
       </c>
       <c r="M15">
-        <v>0.7929216948677417</v>
+        <v>0.7929216948677414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8047837537633276</v>
+        <v>0.8047837537633279</v>
       </c>
       <c r="D16">
-        <v>0.8274582164096602</v>
+        <v>0.8274582164096609</v>
       </c>
       <c r="E16">
-        <v>0.8364762100232545</v>
+        <v>0.8364762100232551</v>
       </c>
       <c r="F16">
-        <v>0.7955525200190002</v>
+        <v>0.7955525200190006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8435373552610334</v>
+        <v>0.8435373552610338</v>
       </c>
       <c r="K16">
-        <v>0.8457933827262868</v>
+        <v>0.8457933827262872</v>
       </c>
       <c r="L16">
-        <v>0.8545459466368175</v>
+        <v>0.854545946636818</v>
       </c>
       <c r="M16">
-        <v>0.8148941679433958</v>
+        <v>0.8148941679433963</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8169226957042725</v>
+        <v>0.8169226957042716</v>
       </c>
       <c r="D17">
-        <v>0.8383922191863411</v>
+        <v>0.8383922191863402</v>
       </c>
       <c r="E17">
-        <v>0.846750732479307</v>
+        <v>0.8467507324793063</v>
       </c>
       <c r="F17">
-        <v>0.8085502530085404</v>
+        <v>0.8085502530085392</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8538307489232273</v>
+        <v>0.8538307489232266</v>
       </c>
       <c r="K17">
-        <v>0.8559835209348132</v>
+        <v>0.8559835209348123</v>
       </c>
       <c r="L17">
-        <v>0.8641109176318014</v>
+        <v>0.8641109176318007</v>
       </c>
       <c r="M17">
-        <v>0.8270206359261694</v>
+        <v>0.8270206359261685</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8235509184676764</v>
+        <v>0.8235509184676771</v>
       </c>
       <c r="D18">
-        <v>0.8443706029106766</v>
+        <v>0.8443706029106776</v>
       </c>
       <c r="E18">
-        <v>0.852372051050128</v>
+        <v>0.8523720510501289</v>
       </c>
       <c r="F18">
-        <v>0.8156448837952439</v>
+        <v>0.8156448837952448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8594552266486146</v>
+        <v>0.8594552266486154</v>
       </c>
       <c r="K18">
-        <v>0.8615521742651798</v>
+        <v>0.8615521742651807</v>
       </c>
       <c r="L18">
-        <v>0.869340018241117</v>
+        <v>0.8693400182411177</v>
       </c>
       <c r="M18">
-        <v>0.8336408623127772</v>
+        <v>0.8336408623127783</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8257439192108306</v>
+        <v>0.8257439192108271</v>
       </c>
       <c r="D19">
-        <v>0.8463498121865666</v>
+        <v>0.8463498121865635</v>
       </c>
       <c r="E19">
-        <v>0.8542335728920507</v>
+        <v>0.8542335728920475</v>
       </c>
       <c r="F19">
-        <v>0.8179918727575273</v>
+        <v>0.8179918727575237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8613166906056183</v>
+        <v>0.8613166906056151</v>
       </c>
       <c r="K19">
-        <v>0.8633952521876621</v>
+        <v>0.863395252187659</v>
       </c>
       <c r="L19">
-        <v>0.87107101823233</v>
+        <v>0.8710710182323269</v>
       </c>
       <c r="M19">
-        <v>0.8358310506446849</v>
+        <v>0.8358310506446814</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8156695537458022</v>
+        <v>0.8156695537458033</v>
       </c>
       <c r="D20">
-        <v>0.8372625671874812</v>
+        <v>0.8372625671874824</v>
       </c>
       <c r="E20">
-        <v>0.8456888228373161</v>
+        <v>0.8456888228373172</v>
       </c>
       <c r="F20">
-        <v>0.8072087487174968</v>
+        <v>0.8072087487174978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8527676770095545</v>
+        <v>0.8527676770095555</v>
       </c>
       <c r="K20">
-        <v>0.8549310467377829</v>
+        <v>0.8549310467377836</v>
       </c>
       <c r="L20">
-        <v>0.8631227792358945</v>
+        <v>0.8631227792358955</v>
       </c>
       <c r="M20">
-        <v>0.8257689164582226</v>
+        <v>0.8257689164582235</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7765317492337852</v>
+        <v>0.7765317492337861</v>
       </c>
       <c r="D21">
-        <v>0.8020911293802064</v>
+        <v>0.8020911293802073</v>
       </c>
       <c r="E21">
-        <v>0.812674616426616</v>
+        <v>0.8126746164266171</v>
       </c>
       <c r="F21">
-        <v>0.7652696325423922</v>
+        <v>0.7652696325423936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8196248203528121</v>
+        <v>0.8196248203528128</v>
       </c>
       <c r="K21">
-        <v>0.8221266139118443</v>
+        <v>0.8221266139118447</v>
       </c>
       <c r="L21">
-        <v>0.8323527921832017</v>
+        <v>0.8323527921832022</v>
       </c>
       <c r="M21">
-        <v>0.7866576510041503</v>
+        <v>0.7866576510041515</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7428511087565871</v>
+        <v>0.7428511087565867</v>
       </c>
       <c r="D22">
-        <v>0.7720166687760441</v>
+        <v>0.7720166687760437</v>
       </c>
       <c r="E22">
-        <v>0.7845309927048641</v>
+        <v>0.7845309927048638</v>
       </c>
       <c r="F22">
-        <v>0.7290799185180014</v>
+        <v>0.7290799185180008</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.791220235009965</v>
+        <v>0.7912202350099646</v>
       </c>
       <c r="K22">
-        <v>0.7940260288708637</v>
+        <v>0.7940260288708634</v>
       </c>
       <c r="L22">
-        <v>0.8060490172804184</v>
+        <v>0.8060490172804181</v>
       </c>
       <c r="M22">
-        <v>0.7529609587566456</v>
+        <v>0.7529609587566454</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7620532604675631</v>
+        <v>0.7620532604675601</v>
       </c>
       <c r="D23">
-        <v>0.789139003527799</v>
+        <v>0.7891390035277961</v>
       </c>
       <c r="E23">
-        <v>0.8005432266610851</v>
+        <v>0.8005432266610825</v>
       </c>
       <c r="F23">
-        <v>0.749726725124112</v>
+        <v>0.7497267251241089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8073989827285155</v>
+        <v>0.8073989827285125</v>
       </c>
       <c r="K23">
-        <v>0.8100299085267904</v>
+        <v>0.8100299085267877</v>
       </c>
       <c r="L23">
-        <v>0.8210226790929416</v>
+        <v>0.821022679092939</v>
       </c>
       <c r="M23">
-        <v>0.7721777399735817</v>
+        <v>0.7721777399735789</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8162371598669945</v>
+        <v>0.816237159866992</v>
       </c>
       <c r="D24">
-        <v>0.8377742138214735</v>
+        <v>0.8377742138214709</v>
       </c>
       <c r="E24">
-        <v>0.8461697764078588</v>
+        <v>0.8461697764078564</v>
       </c>
       <c r="F24">
-        <v>0.8078163858830437</v>
+        <v>0.8078163858830409</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8532491793424796</v>
+        <v>0.8532491793424769</v>
       </c>
       <c r="K24">
-        <v>0.8554077471425369</v>
+        <v>0.8554077471425344</v>
       </c>
       <c r="L24">
-        <v>0.8635703333714774</v>
+        <v>0.863570333371475</v>
       </c>
       <c r="M24">
-        <v>0.8263358819091071</v>
+        <v>0.8263358819091042</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8605230271407929</v>
+        <v>0.8605230271407923</v>
       </c>
       <c r="D25">
-        <v>0.8778129493265313</v>
+        <v>0.877812949326531</v>
       </c>
       <c r="E25">
-        <v>0.883857388590011</v>
+        <v>0.8838573885900103</v>
       </c>
       <c r="F25">
-        <v>0.8552000130896071</v>
+        <v>0.8552000130896068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8908668778743165</v>
+        <v>0.8908668778743161</v>
       </c>
       <c r="K25">
         <v>0.8926590830258525</v>
       </c>
       <c r="L25">
-        <v>0.8985729463477177</v>
+        <v>0.8985729463477171</v>
       </c>
       <c r="M25">
-        <v>0.8705565756533415</v>
+        <v>0.8705565756533413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>0.8888941121140828</v>
       </c>
       <c r="D2">
-        <v>0.9035708640324998</v>
+        <v>0.9035708640324996</v>
       </c>
       <c r="E2">
         <v>0.9081467380776238</v>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9149946949313684</v>
+        <v>0.9149946949313683</v>
       </c>
       <c r="K2">
         <v>0.9165598837649016</v>
@@ -442,7 +442,7 @@
         <v>0.9210536402224813</v>
       </c>
       <c r="M2">
-        <v>0.8988751223301423</v>
+        <v>0.8988751223301422</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9069917764836453</v>
+        <v>0.9069917764836491</v>
       </c>
       <c r="D3">
-        <v>0.9200379190216167</v>
+        <v>0.9200379190216206</v>
       </c>
       <c r="E3">
-        <v>0.9236884691467786</v>
+        <v>0.9236884691467824</v>
       </c>
       <c r="F3">
-        <v>0.9049232784008435</v>
+        <v>0.9049232784008481</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9303845725913999</v>
+        <v>0.9303845725914035</v>
       </c>
       <c r="K3">
-        <v>0.9318076310490173</v>
+        <v>0.9318076310490212</v>
       </c>
       <c r="L3">
-        <v>0.9354008003900801</v>
+        <v>0.9354008003900838</v>
       </c>
       <c r="M3">
-        <v>0.9169369057679126</v>
+        <v>0.9169369057679166</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9178261759716096</v>
+        <v>0.9178261759716067</v>
       </c>
       <c r="D4">
-        <v>0.9299079093223297</v>
+        <v>0.9299079093223268</v>
       </c>
       <c r="E4">
-        <v>0.9330078111227322</v>
+        <v>0.9330078111227299</v>
       </c>
       <c r="F4">
-        <v>0.9165268489988699</v>
+        <v>0.9165268489988672</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9395941283206385</v>
+        <v>0.9395941283206357</v>
       </c>
       <c r="K4">
-        <v>0.9409329909691987</v>
+        <v>0.9409329909691961</v>
       </c>
       <c r="L4">
-        <v>0.943988186225186</v>
+        <v>0.9439881862251837</v>
       </c>
       <c r="M4">
-        <v>0.9277493275728639</v>
+        <v>0.9277493275728612</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9222014544204101</v>
+        <v>0.9222014544204079</v>
       </c>
       <c r="D5">
-        <v>0.9338960095862431</v>
+        <v>0.9338960095862412</v>
       </c>
       <c r="E5">
-        <v>0.9367741187242408</v>
+        <v>0.9367741187242392</v>
       </c>
       <c r="F5">
-        <v>0.9212145473444627</v>
+        <v>0.9212145473444606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9433119713628834</v>
+        <v>0.9433119713628813</v>
       </c>
       <c r="K5">
-        <v>0.9446170090472606</v>
+        <v>0.9446170090472588</v>
       </c>
       <c r="L5">
-        <v>0.9474550954015539</v>
+        <v>0.9474550954015525</v>
       </c>
       <c r="M5">
-        <v>0.9321156679637349</v>
+        <v>0.9321156679637328</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9229262972429286</v>
+        <v>0.9229262972429313</v>
       </c>
       <c r="D6">
-        <v>0.9345568302759779</v>
+        <v>0.9345568302759808</v>
       </c>
       <c r="E6">
-        <v>0.9373982240750054</v>
+        <v>0.9373982240750075</v>
       </c>
       <c r="F6">
-        <v>0.9219912591640803</v>
+        <v>0.9219912591640826</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9439278144235143</v>
+        <v>0.9439278144235169</v>
       </c>
       <c r="K6">
-        <v>0.9452272578142782</v>
+        <v>0.9452272578142807</v>
       </c>
       <c r="L6">
-        <v>0.9480293811106708</v>
+        <v>0.9480293811106729</v>
       </c>
       <c r="M6">
-        <v>0.9328390276352797</v>
+        <v>0.9328390276352821</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9178853096113784</v>
+        <v>0.9178853096113809</v>
       </c>
       <c r="D7">
-        <v>0.9299618016221459</v>
+        <v>0.9299618016221483</v>
       </c>
       <c r="E7">
-        <v>0.9330587037566082</v>
+        <v>0.9330587037566102</v>
       </c>
       <c r="F7">
-        <v>0.9165901976918421</v>
+        <v>0.9165901976918446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9396443819523229</v>
+        <v>0.9396443819523252</v>
       </c>
       <c r="K7">
-        <v>0.9409827867849934</v>
+        <v>0.9409827867849958</v>
       </c>
       <c r="L7">
-        <v>0.944035047322038</v>
+        <v>0.9440350473220401</v>
       </c>
       <c r="M7">
-        <v>0.9278083406004354</v>
+        <v>0.9278083406004376</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8952125768144981</v>
+        <v>0.8952125768145015</v>
       </c>
       <c r="D8">
-        <v>0.9093170706902518</v>
+        <v>0.9093170706902549</v>
       </c>
       <c r="E8">
-        <v>0.9135690067085223</v>
+        <v>0.9135690067085251</v>
       </c>
       <c r="F8">
-        <v>0.8923137867837028</v>
+        <v>0.8923137867837062</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9203683498951649</v>
+        <v>0.9203683498951684</v>
       </c>
       <c r="K8">
-        <v>0.9218836945616086</v>
+        <v>0.9218836945616116</v>
       </c>
       <c r="L8">
-        <v>0.9260626710644702</v>
+        <v>0.9260626710644728</v>
       </c>
       <c r="M8">
-        <v>0.9051812117340834</v>
+        <v>0.9051812117340867</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8465548619148396</v>
+        <v>0.8465548619148422</v>
       </c>
       <c r="D9">
-        <v>0.8651604083230822</v>
+        <v>0.8651604083230847</v>
       </c>
       <c r="E9">
-        <v>0.8719377757855319</v>
+        <v>0.8719377757855343</v>
       </c>
       <c r="F9">
-        <v>0.8402582336008682</v>
+        <v>0.8402582336008712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8789932328779905</v>
+        <v>0.8789932328779928</v>
       </c>
       <c r="K9">
-        <v>0.8808993045569024</v>
+        <v>0.8808993045569048</v>
       </c>
       <c r="L9">
-        <v>0.8875175286188581</v>
+        <v>0.8875175286188605</v>
       </c>
       <c r="M9">
-        <v>0.8566117285431334</v>
+        <v>0.8566117285431359</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8033419887797896</v>
+        <v>0.80334198877979</v>
       </c>
       <c r="D10">
-        <v>0.8261608837074004</v>
+        <v>0.8261608837074007</v>
       </c>
       <c r="E10">
-        <v>0.8352577026482753</v>
+        <v>0.8352577026482757</v>
       </c>
       <c r="F10">
-        <v>0.7940082938754213</v>
+        <v>0.7940082938754217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.842315472602387</v>
+        <v>0.8423154726023873</v>
       </c>
       <c r="K10">
-        <v>0.8445838539924753</v>
+        <v>0.8445838539924755</v>
       </c>
       <c r="L10">
-        <v>0.8534109695335349</v>
+        <v>0.8534109695335352</v>
       </c>
       <c r="M10">
-        <v>0.8134536797270827</v>
+        <v>0.8134536797270834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7794084863284426</v>
+        <v>0.7794084863284435</v>
       </c>
       <c r="D11">
-        <v>0.8046686230682222</v>
+        <v>0.8046686230682235</v>
       </c>
       <c r="E11">
-        <v>0.8150905980172453</v>
+        <v>0.8150905980172463</v>
       </c>
       <c r="F11">
-        <v>0.7683557070082776</v>
+        <v>0.7683557070082789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8220564797627846</v>
+        <v>0.8220564797627856</v>
       </c>
       <c r="K11">
-        <v>0.8245328814976253</v>
+        <v>0.8245328814976264</v>
       </c>
       <c r="L11">
-        <v>0.8346077148420129</v>
+        <v>0.8346077148420139</v>
       </c>
       <c r="M11">
-        <v>0.7895338318043059</v>
+        <v>0.789533831804307</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7691541830514008</v>
+        <v>0.7691541830514059</v>
       </c>
       <c r="D12">
-        <v>0.7954870258732873</v>
+        <v>0.7954870258732922</v>
       </c>
       <c r="E12">
-        <v>0.8064870539410461</v>
+        <v>0.8064870539410506</v>
       </c>
       <c r="F12">
-        <v>0.7573520564680097</v>
+        <v>0.7573520564680152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8133923979864415</v>
+        <v>0.8133923979864462</v>
       </c>
       <c r="K12">
-        <v>0.8159597090032861</v>
+        <v>0.8159597090032907</v>
       </c>
       <c r="L12">
-        <v>0.8265754682569774</v>
+        <v>0.8265754682569816</v>
       </c>
       <c r="M12">
-        <v>0.7792802796127034</v>
+        <v>0.7792802796127086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7714332547928701</v>
+        <v>0.7714332547928734</v>
       </c>
       <c r="D13">
-        <v>0.7975262209074601</v>
+        <v>0.7975262209074632</v>
       </c>
       <c r="E13">
-        <v>0.8083972077735105</v>
+        <v>0.8083972077735136</v>
       </c>
       <c r="F13">
-        <v>0.7597984503474403</v>
+        <v>0.7597984503474436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8153171289638551</v>
+        <v>0.8153171289638583</v>
       </c>
       <c r="K13">
-        <v>0.8178641385173747</v>
+        <v>0.8178641385173777</v>
       </c>
       <c r="L13">
-        <v>0.8283593226768026</v>
+        <v>0.8283593226768057</v>
       </c>
       <c r="M13">
-        <v>0.7815594869733685</v>
+        <v>0.7815594869733716</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7785946565466306</v>
+        <v>0.7785946565466284</v>
       </c>
       <c r="D14">
-        <v>0.8039393175006091</v>
+        <v>0.8039393175006068</v>
       </c>
       <c r="E14">
-        <v>0.8144069333829643</v>
+        <v>0.8144069333829623</v>
       </c>
       <c r="F14">
-        <v>0.7674827224083747</v>
+        <v>0.7674827224083722</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8213684824039432</v>
+        <v>0.8213684824039411</v>
       </c>
       <c r="K14">
-        <v>0.8238520587573245</v>
+        <v>0.8238520587573226</v>
       </c>
       <c r="L14">
-        <v>0.8339696761252432</v>
+        <v>0.8339696761252412</v>
       </c>
       <c r="M14">
-        <v>0.7887201856331848</v>
+        <v>0.7887201856331825</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>0.7827973305558958</v>
       </c>
       <c r="D15">
-        <v>0.8077066093334144</v>
+        <v>0.8077066093334143</v>
       </c>
       <c r="E15">
         <v>0.8179389589269239</v>
       </c>
       <c r="F15">
-        <v>0.7719903268230407</v>
+        <v>0.771990326823041</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>0.8273686161271803</v>
       </c>
       <c r="L15">
-        <v>0.8372655575300514</v>
+        <v>0.8372655575300513</v>
       </c>
       <c r="M15">
-        <v>0.7929216948677414</v>
+        <v>0.7929216948677417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8047837537633279</v>
+        <v>0.8047837537633276</v>
       </c>
       <c r="D16">
-        <v>0.8274582164096609</v>
+        <v>0.8274582164096602</v>
       </c>
       <c r="E16">
-        <v>0.8364762100232551</v>
+        <v>0.8364762100232545</v>
       </c>
       <c r="F16">
-        <v>0.7955525200190006</v>
+        <v>0.7955525200190002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8435373552610338</v>
+        <v>0.8435373552610334</v>
       </c>
       <c r="K16">
-        <v>0.8457933827262872</v>
+        <v>0.8457933827262868</v>
       </c>
       <c r="L16">
-        <v>0.854545946636818</v>
+        <v>0.8545459466368175</v>
       </c>
       <c r="M16">
-        <v>0.8148941679433963</v>
+        <v>0.8148941679433958</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8169226957042716</v>
+        <v>0.8169226957042725</v>
       </c>
       <c r="D17">
-        <v>0.8383922191863402</v>
+        <v>0.8383922191863411</v>
       </c>
       <c r="E17">
-        <v>0.8467507324793063</v>
+        <v>0.846750732479307</v>
       </c>
       <c r="F17">
-        <v>0.8085502530085392</v>
+        <v>0.8085502530085404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8538307489232266</v>
+        <v>0.8538307489232273</v>
       </c>
       <c r="K17">
-        <v>0.8559835209348123</v>
+        <v>0.8559835209348132</v>
       </c>
       <c r="L17">
-        <v>0.8641109176318007</v>
+        <v>0.8641109176318014</v>
       </c>
       <c r="M17">
-        <v>0.8270206359261685</v>
+        <v>0.8270206359261694</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8235509184676771</v>
+        <v>0.8235509184676764</v>
       </c>
       <c r="D18">
-        <v>0.8443706029106776</v>
+        <v>0.8443706029106766</v>
       </c>
       <c r="E18">
-        <v>0.8523720510501289</v>
+        <v>0.852372051050128</v>
       </c>
       <c r="F18">
-        <v>0.8156448837952448</v>
+        <v>0.8156448837952439</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8594552266486154</v>
+        <v>0.8594552266486146</v>
       </c>
       <c r="K18">
-        <v>0.8615521742651807</v>
+        <v>0.8615521742651798</v>
       </c>
       <c r="L18">
-        <v>0.8693400182411177</v>
+        <v>0.869340018241117</v>
       </c>
       <c r="M18">
-        <v>0.8336408623127783</v>
+        <v>0.8336408623127772</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8257439192108271</v>
+        <v>0.8257439192108306</v>
       </c>
       <c r="D19">
-        <v>0.8463498121865635</v>
+        <v>0.8463498121865666</v>
       </c>
       <c r="E19">
-        <v>0.8542335728920475</v>
+        <v>0.8542335728920507</v>
       </c>
       <c r="F19">
-        <v>0.8179918727575237</v>
+        <v>0.8179918727575273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8613166906056151</v>
+        <v>0.8613166906056183</v>
       </c>
       <c r="K19">
-        <v>0.863395252187659</v>
+        <v>0.8633952521876621</v>
       </c>
       <c r="L19">
-        <v>0.8710710182323269</v>
+        <v>0.87107101823233</v>
       </c>
       <c r="M19">
-        <v>0.8358310506446814</v>
+        <v>0.8358310506446849</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8156695537458033</v>
+        <v>0.8156695537458022</v>
       </c>
       <c r="D20">
-        <v>0.8372625671874824</v>
+        <v>0.8372625671874812</v>
       </c>
       <c r="E20">
-        <v>0.8456888228373172</v>
+        <v>0.8456888228373161</v>
       </c>
       <c r="F20">
-        <v>0.8072087487174978</v>
+        <v>0.8072087487174968</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8527676770095555</v>
+        <v>0.8527676770095545</v>
       </c>
       <c r="K20">
-        <v>0.8549310467377836</v>
+        <v>0.8549310467377829</v>
       </c>
       <c r="L20">
-        <v>0.8631227792358955</v>
+        <v>0.8631227792358945</v>
       </c>
       <c r="M20">
-        <v>0.8257689164582235</v>
+        <v>0.8257689164582226</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7765317492337861</v>
+        <v>0.7765317492337852</v>
       </c>
       <c r="D21">
-        <v>0.8020911293802073</v>
+        <v>0.8020911293802064</v>
       </c>
       <c r="E21">
-        <v>0.8126746164266171</v>
+        <v>0.812674616426616</v>
       </c>
       <c r="F21">
-        <v>0.7652696325423936</v>
+        <v>0.7652696325423922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8196248203528128</v>
+        <v>0.8196248203528121</v>
       </c>
       <c r="K21">
-        <v>0.8221266139118447</v>
+        <v>0.8221266139118443</v>
       </c>
       <c r="L21">
-        <v>0.8323527921832022</v>
+        <v>0.8323527921832017</v>
       </c>
       <c r="M21">
-        <v>0.7866576510041515</v>
+        <v>0.7866576510041503</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7428511087565867</v>
+        <v>0.7428511087565871</v>
       </c>
       <c r="D22">
-        <v>0.7720166687760437</v>
+        <v>0.7720166687760441</v>
       </c>
       <c r="E22">
-        <v>0.7845309927048638</v>
+        <v>0.7845309927048641</v>
       </c>
       <c r="F22">
-        <v>0.7290799185180008</v>
+        <v>0.7290799185180014</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7912202350099646</v>
+        <v>0.791220235009965</v>
       </c>
       <c r="K22">
-        <v>0.7940260288708634</v>
+        <v>0.7940260288708637</v>
       </c>
       <c r="L22">
-        <v>0.8060490172804181</v>
+        <v>0.8060490172804184</v>
       </c>
       <c r="M22">
-        <v>0.7529609587566454</v>
+        <v>0.7529609587566456</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7620532604675601</v>
+        <v>0.7620532604675631</v>
       </c>
       <c r="D23">
-        <v>0.7891390035277961</v>
+        <v>0.789139003527799</v>
       </c>
       <c r="E23">
-        <v>0.8005432266610825</v>
+        <v>0.8005432266610851</v>
       </c>
       <c r="F23">
-        <v>0.7497267251241089</v>
+        <v>0.749726725124112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8073989827285125</v>
+        <v>0.8073989827285155</v>
       </c>
       <c r="K23">
-        <v>0.8100299085267877</v>
+        <v>0.8100299085267904</v>
       </c>
       <c r="L23">
-        <v>0.821022679092939</v>
+        <v>0.8210226790929416</v>
       </c>
       <c r="M23">
-        <v>0.7721777399735789</v>
+        <v>0.7721777399735817</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.816237159866992</v>
+        <v>0.8162371598669945</v>
       </c>
       <c r="D24">
-        <v>0.8377742138214709</v>
+        <v>0.8377742138214735</v>
       </c>
       <c r="E24">
-        <v>0.8461697764078564</v>
+        <v>0.8461697764078588</v>
       </c>
       <c r="F24">
-        <v>0.8078163858830409</v>
+        <v>0.8078163858830437</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8532491793424769</v>
+        <v>0.8532491793424796</v>
       </c>
       <c r="K24">
-        <v>0.8554077471425344</v>
+        <v>0.8554077471425369</v>
       </c>
       <c r="L24">
-        <v>0.863570333371475</v>
+        <v>0.8635703333714774</v>
       </c>
       <c r="M24">
-        <v>0.8263358819091042</v>
+        <v>0.8263358819091071</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8605230271407923</v>
+        <v>0.8605230271407929</v>
       </c>
       <c r="D25">
-        <v>0.877812949326531</v>
+        <v>0.8778129493265313</v>
       </c>
       <c r="E25">
-        <v>0.8838573885900103</v>
+        <v>0.883857388590011</v>
       </c>
       <c r="F25">
-        <v>0.8552000130896068</v>
+        <v>0.8552000130896071</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8908668778743161</v>
+        <v>0.8908668778743165</v>
       </c>
       <c r="K25">
         <v>0.8926590830258525</v>
       </c>
       <c r="L25">
-        <v>0.8985729463477171</v>
+        <v>0.8985729463477177</v>
       </c>
       <c r="M25">
-        <v>0.8705565756533413</v>
+        <v>0.8705565756533415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8888941121140828</v>
+        <v>0.8890742694217879</v>
       </c>
       <c r="D2">
-        <v>0.9035708640324996</v>
+        <v>0.9037401103302787</v>
       </c>
       <c r="E2">
-        <v>0.9081467380776238</v>
+        <v>0.9083065527642358</v>
       </c>
       <c r="F2">
-        <v>0.8855519465505193</v>
+        <v>0.885733822653311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9149946949313683</v>
+        <v>0.9151673625861507</v>
       </c>
       <c r="K2">
-        <v>0.9165598837649016</v>
+        <v>0.916726073553736</v>
       </c>
       <c r="L2">
-        <v>0.9210536402224813</v>
+        <v>0.9212106063221909</v>
       </c>
       <c r="M2">
-        <v>0.8988751223301422</v>
+        <v>0.8990535367475999</v>
+      </c>
+      <c r="N2">
+        <v>0.9404684907749111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9069917764836491</v>
+        <v>0.9071394362093713</v>
       </c>
       <c r="D3">
-        <v>0.9200379190216206</v>
+        <v>0.9201769787887207</v>
       </c>
       <c r="E3">
-        <v>0.9236884691467824</v>
+        <v>0.9238198388791868</v>
       </c>
       <c r="F3">
-        <v>0.9049232784008481</v>
+        <v>0.9050719096463193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9303845725914035</v>
+        <v>0.9305269619445714</v>
       </c>
       <c r="K3">
-        <v>0.9318076310490212</v>
+        <v>0.9319444943414674</v>
       </c>
       <c r="L3">
-        <v>0.9354008003900838</v>
+        <v>0.9355301160111855</v>
       </c>
       <c r="M3">
-        <v>0.9169369057679166</v>
+        <v>0.9170830874268215</v>
+      </c>
+      <c r="N3">
+        <v>0.9515510310617771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9178261759716067</v>
+        <v>0.9179559055408025</v>
       </c>
       <c r="D4">
-        <v>0.9299079093223268</v>
+        <v>0.9300302509168591</v>
       </c>
       <c r="E4">
-        <v>0.9330078111227299</v>
+        <v>0.9331234159841069</v>
       </c>
       <c r="F4">
-        <v>0.9165268489988672</v>
+        <v>0.9166572159435384</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9395941283206357</v>
+        <v>0.939719661639297</v>
       </c>
       <c r="K4">
-        <v>0.9409329909691961</v>
+        <v>0.9410535610028193</v>
       </c>
       <c r="L4">
-        <v>0.9439881862251837</v>
+        <v>0.9441021311175992</v>
       </c>
       <c r="M4">
-        <v>0.9277493275728612</v>
+        <v>0.9278777359658862</v>
+      </c>
+      <c r="N4">
+        <v>0.9581780256018028</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9222014544204079</v>
+        <v>0.9223242269150831</v>
       </c>
       <c r="D5">
-        <v>0.9338960095862412</v>
+        <v>0.9340118524201958</v>
       </c>
       <c r="E5">
-        <v>0.9367741187242392</v>
+        <v>0.93688359360561</v>
       </c>
       <c r="F5">
-        <v>0.9212145473444606</v>
+        <v>0.9213378431847034</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9433119713628813</v>
+        <v>0.9434309341961147</v>
       </c>
       <c r="K5">
-        <v>0.9446170090472588</v>
+        <v>0.9447312349657955</v>
       </c>
       <c r="L5">
-        <v>0.9474550954015525</v>
+        <v>0.9475630540550568</v>
       </c>
       <c r="M5">
-        <v>0.9321156679637328</v>
+        <v>0.9322371823266403</v>
+      </c>
+      <c r="N5">
+        <v>0.960851714878861</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9229262972429313</v>
+        <v>0.9230479319945573</v>
       </c>
       <c r="D6">
-        <v>0.9345568302759808</v>
+        <v>0.9346716096903129</v>
       </c>
       <c r="E6">
-        <v>0.9373982240750075</v>
+        <v>0.9375066957977281</v>
       </c>
       <c r="F6">
-        <v>0.9219912591640826</v>
+        <v>0.9221133994601902</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9439278144235169</v>
+        <v>0.9440457010982317</v>
       </c>
       <c r="K6">
-        <v>0.9452272578142807</v>
+        <v>0.9453404450417658</v>
       </c>
       <c r="L6">
-        <v>0.9480293811106729</v>
+        <v>0.9481363596057614</v>
       </c>
       <c r="M6">
-        <v>0.9328390276352821</v>
+        <v>0.9329594146840352</v>
+      </c>
+      <c r="N6">
+        <v>0.9612944953147443</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9178853096113809</v>
+        <v>0.9180149441099698</v>
       </c>
       <c r="D7">
-        <v>0.9299618016221483</v>
+        <v>0.9300840544537622</v>
       </c>
       <c r="E7">
-        <v>0.9330587037566102</v>
+        <v>0.9331742248982532</v>
       </c>
       <c r="F7">
-        <v>0.9165901976918446</v>
+        <v>0.9167204679480055</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9396443819523252</v>
+        <v>0.9397698255985377</v>
       </c>
       <c r="K7">
-        <v>0.9409827867849958</v>
+        <v>0.9411032702083821</v>
       </c>
       <c r="L7">
-        <v>0.9440350473220401</v>
+        <v>0.944148910494496</v>
       </c>
       <c r="M7">
-        <v>0.9278083406004376</v>
+        <v>0.9279366547760448</v>
+      </c>
+      <c r="N7">
+        <v>0.9582141723401296</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8952125768145015</v>
+        <v>0.8953809925845698</v>
       </c>
       <c r="D8">
-        <v>0.9093170706902549</v>
+        <v>0.9094754274767757</v>
       </c>
       <c r="E8">
-        <v>0.9135690067085251</v>
+        <v>0.9137185634372086</v>
       </c>
       <c r="F8">
-        <v>0.8923137867837062</v>
+        <v>0.8924836309006383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9203683498951684</v>
+        <v>0.9205301170125221</v>
       </c>
       <c r="K8">
-        <v>0.9218836945616116</v>
+        <v>0.9220393182657577</v>
       </c>
       <c r="L8">
-        <v>0.9260626710644728</v>
+        <v>0.9262096774962528</v>
       </c>
       <c r="M8">
-        <v>0.9051812117340867</v>
+        <v>0.9053479774700839</v>
+      </c>
+      <c r="N8">
+        <v>0.9443389612929953</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8465548619148422</v>
+        <v>0.8468279693197095</v>
       </c>
       <c r="D9">
-        <v>0.8651604083230847</v>
+        <v>0.865415206118337</v>
       </c>
       <c r="E9">
-        <v>0.8719377757855343</v>
+        <v>0.8721780324459075</v>
       </c>
       <c r="F9">
-        <v>0.8402582336008712</v>
+        <v>0.8405361001603404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8789932328779928</v>
+        <v>0.8792508084169379</v>
       </c>
       <c r="K9">
-        <v>0.8808993045569048</v>
+        <v>0.881148058821289</v>
       </c>
       <c r="L9">
-        <v>0.8875175286188605</v>
+        <v>0.8877522043883641</v>
       </c>
       <c r="M9">
-        <v>0.8566117285431359</v>
+        <v>0.8568824653203407</v>
+      </c>
+      <c r="N9">
+        <v>0.91454078807441</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.80334198877979</v>
+        <v>0.8037503284610574</v>
       </c>
       <c r="D10">
-        <v>0.8261608837074007</v>
+        <v>0.8265383727195272</v>
       </c>
       <c r="E10">
-        <v>0.8352577026482757</v>
+        <v>0.8356128583344502</v>
       </c>
       <c r="F10">
-        <v>0.7940082938754217</v>
+        <v>0.7944277528011955</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8423154726023873</v>
+        <v>0.8426931774531917</v>
       </c>
       <c r="K10">
-        <v>0.8445838539924755</v>
+        <v>0.8449499886516706</v>
       </c>
       <c r="L10">
-        <v>0.8534109695335352</v>
+        <v>0.8537557588613517</v>
       </c>
       <c r="M10">
-        <v>0.8134536797270834</v>
+        <v>0.8138590576854481</v>
+      </c>
+      <c r="N10">
+        <v>0.8881932037077952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7794084863284435</v>
+        <v>0.7799232429677329</v>
       </c>
       <c r="D11">
-        <v>0.8046686230682235</v>
+        <v>0.8051415502336916</v>
       </c>
       <c r="E11">
-        <v>0.8150905980172463</v>
+        <v>0.815534807080819</v>
       </c>
       <c r="F11">
-        <v>0.7683557070082789</v>
+        <v>0.7688878017722157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8220564797627856</v>
+        <v>0.8225267868095821</v>
       </c>
       <c r="K11">
-        <v>0.8245328814976264</v>
+        <v>0.8249897847636904</v>
       </c>
       <c r="L11">
-        <v>0.8346077148420139</v>
+        <v>0.8350374014780824</v>
       </c>
       <c r="M11">
-        <v>0.789533831804307</v>
+        <v>0.7900454072260719</v>
+      </c>
+      <c r="N11">
+        <v>0.8737010157427605</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7691541830514059</v>
+        <v>0.7697255614568478</v>
       </c>
       <c r="D12">
-        <v>0.7954870258732922</v>
+        <v>0.7960104351940266</v>
       </c>
       <c r="E12">
-        <v>0.8064870539410506</v>
+        <v>0.8069782760801287</v>
       </c>
       <c r="F12">
-        <v>0.7573520564680152</v>
+        <v>0.7579444184048876</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8133923979864462</v>
+        <v>0.8139114880362173</v>
       </c>
       <c r="K12">
-        <v>0.8159597090032907</v>
+        <v>0.8164644966668249</v>
       </c>
       <c r="L12">
-        <v>0.8265754682569816</v>
+        <v>0.8270498709967609</v>
       </c>
       <c r="M12">
-        <v>0.7792802796127086</v>
+        <v>0.7798484387694091</v>
+      </c>
+      <c r="N12">
+        <v>0.8675221188488463</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7714332547928734</v>
+        <v>0.7719913375015605</v>
       </c>
       <c r="D13">
-        <v>0.7975262209074632</v>
+        <v>0.7980377922412619</v>
       </c>
       <c r="E13">
-        <v>0.8083972077735136</v>
+        <v>0.8088774104636767</v>
       </c>
       <c r="F13">
-        <v>0.7597984503474436</v>
+        <v>0.7603766421175682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8153171289638583</v>
+        <v>0.8158247896392753</v>
       </c>
       <c r="K13">
-        <v>0.8178641385173777</v>
+        <v>0.8183577038886074</v>
       </c>
       <c r="L13">
-        <v>0.8283593226768057</v>
+        <v>0.8288232495341818</v>
       </c>
       <c r="M13">
-        <v>0.7815594869733716</v>
+        <v>0.7821143547716622</v>
+      </c>
+      <c r="N13">
+        <v>0.868893637256816</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7785946565466284</v>
+        <v>0.7791136219231662</v>
       </c>
       <c r="D14">
-        <v>0.8039393175006068</v>
+        <v>0.8044160034156792</v>
       </c>
       <c r="E14">
-        <v>0.8144069333829623</v>
+        <v>0.8148546448979662</v>
       </c>
       <c r="F14">
-        <v>0.7674827224083722</v>
+        <v>0.768019289569674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8213684824039411</v>
+        <v>0.8218424257815108</v>
       </c>
       <c r="K14">
-        <v>0.8238520587573226</v>
+        <v>0.8243125299808896</v>
       </c>
       <c r="L14">
-        <v>0.8339696761252412</v>
+        <v>0.834402696183749</v>
       </c>
       <c r="M14">
-        <v>0.7887201856331825</v>
+        <v>0.7892359651743047</v>
+      </c>
+      <c r="N14">
+        <v>0.8732099004120144</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7827973305558958</v>
+        <v>0.7832950394054116</v>
       </c>
       <c r="D15">
-        <v>0.8077066093334143</v>
+        <v>0.8081643001819278</v>
       </c>
       <c r="E15">
-        <v>0.8179389589269239</v>
+        <v>0.8183689670988474</v>
       </c>
       <c r="F15">
-        <v>0.771990326823041</v>
+        <v>0.7725043185766528</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8249220165074069</v>
+        <v>0.825377576080862</v>
       </c>
       <c r="K15">
-        <v>0.8273686161271803</v>
+        <v>0.82781105171879</v>
       </c>
       <c r="L15">
-        <v>0.8372655575300513</v>
+        <v>0.8376817248070491</v>
       </c>
       <c r="M15">
-        <v>0.7929216948677417</v>
+        <v>0.7934162442475884</v>
+      </c>
+      <c r="N15">
+        <v>0.8757473354983517</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8047837537633276</v>
+        <v>0.8051865836266697</v>
       </c>
       <c r="D16">
-        <v>0.8274582164096602</v>
+        <v>0.8278307406522492</v>
       </c>
       <c r="E16">
-        <v>0.8364762100232545</v>
+        <v>0.8368267260100247</v>
       </c>
       <c r="F16">
-        <v>0.7955525200190002</v>
+        <v>0.7959661730261791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8435373552610334</v>
+        <v>0.8439102261925995</v>
       </c>
       <c r="K16">
-        <v>0.8457933827262868</v>
+        <v>0.8461547848343332</v>
       </c>
       <c r="L16">
-        <v>0.8545459466368175</v>
+        <v>0.8548863040352469</v>
       </c>
       <c r="M16">
-        <v>0.8148941679433958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8152940530873155</v>
+      </c>
+      <c r="N16">
+        <v>0.8890689549644045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8169226957042725</v>
+        <v>0.8172823288278233</v>
       </c>
       <c r="D17">
-        <v>0.8383922191863411</v>
+        <v>0.8387257274685989</v>
       </c>
       <c r="E17">
-        <v>0.846750732479307</v>
+        <v>0.8470647599198893</v>
       </c>
       <c r="F17">
-        <v>0.8085502530085404</v>
+        <v>0.8089184885723426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8538307489232273</v>
+        <v>0.854165561903953</v>
       </c>
       <c r="K17">
-        <v>0.8559835209348132</v>
+        <v>0.8563076870414236</v>
       </c>
       <c r="L17">
-        <v>0.8641109176318014</v>
+        <v>0.8644163830987053</v>
       </c>
       <c r="M17">
-        <v>0.8270206359261694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.827377477969079</v>
+      </c>
+      <c r="N17">
+        <v>0.8964528094378252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8235509184676764</v>
+        <v>0.8238891070384738</v>
       </c>
       <c r="D18">
-        <v>0.8443706029106766</v>
+        <v>0.8446846771359126</v>
       </c>
       <c r="E18">
-        <v>0.852372051050128</v>
+        <v>0.852667884537742</v>
       </c>
       <c r="F18">
-        <v>0.8156448837952439</v>
+        <v>0.8159906428712469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8594552266486146</v>
+        <v>0.8597710315350603</v>
       </c>
       <c r="K18">
-        <v>0.8615521742651798</v>
+        <v>0.8618577602401365</v>
       </c>
       <c r="L18">
-        <v>0.869340018241117</v>
+        <v>0.8696280584816657</v>
       </c>
       <c r="M18">
-        <v>0.8336408623127772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8339763497599721</v>
+      </c>
+      <c r="N18">
+        <v>0.9004917884952756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8257439192108306</v>
+        <v>0.8260753079018163</v>
       </c>
       <c r="D19">
-        <v>0.8463498121865666</v>
+        <v>0.846657714430898</v>
       </c>
       <c r="E19">
-        <v>0.8542335728920507</v>
+        <v>0.8545236255086637</v>
       </c>
       <c r="F19">
-        <v>0.8179918727575273</v>
+        <v>0.8183305151209919</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8613166906056183</v>
+        <v>0.8616264509380155</v>
       </c>
       <c r="K19">
-        <v>0.8633952521876621</v>
+        <v>0.8636949323803189</v>
       </c>
       <c r="L19">
-        <v>0.87107101823233</v>
+        <v>0.87135351763895</v>
       </c>
       <c r="M19">
-        <v>0.8358310506446849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8361597686705557</v>
+      </c>
+      <c r="N19">
+        <v>0.9018291181648779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8156695537458022</v>
+        <v>0.8160334006611569</v>
       </c>
       <c r="D20">
-        <v>0.8372625671874812</v>
+        <v>0.8375998889512896</v>
       </c>
       <c r="E20">
-        <v>0.8456888228373161</v>
+        <v>0.846006418914414</v>
       </c>
       <c r="F20">
-        <v>0.8072087487174968</v>
+        <v>0.8075814065300746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8527676770095545</v>
+        <v>0.8531062156747004</v>
       </c>
       <c r="K20">
-        <v>0.8549310467377829</v>
+        <v>0.8552588560795388</v>
       </c>
       <c r="L20">
-        <v>0.8631227792358945</v>
+        <v>0.8634316603027823</v>
       </c>
       <c r="M20">
-        <v>0.8257689164582226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8261299556960258</v>
+      </c>
+      <c r="N20">
+        <v>0.8956897329533444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7765317492337852</v>
+        <v>0.7770615911960005</v>
       </c>
       <c r="D21">
-        <v>0.8020911293802064</v>
+        <v>0.8025775240526399</v>
       </c>
       <c r="E21">
-        <v>0.812674616426616</v>
+        <v>0.8131313731486043</v>
       </c>
       <c r="F21">
-        <v>0.7652696325423922</v>
+        <v>0.7658177632843249</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8196248203528121</v>
+        <v>0.8201081530769898</v>
       </c>
       <c r="K21">
-        <v>0.8221266139118443</v>
+        <v>0.8225962990227965</v>
       </c>
       <c r="L21">
-        <v>0.8323527921832017</v>
+        <v>0.8327944192796464</v>
       </c>
       <c r="M21">
-        <v>0.7866576510041503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7871842965548503</v>
+      </c>
+      <c r="N21">
+        <v>0.8719655612536512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7428511087565871</v>
+        <v>0.7436158468704096</v>
       </c>
       <c r="D22">
-        <v>0.7720166687760441</v>
+        <v>0.77271135174243</v>
       </c>
       <c r="E22">
-        <v>0.7845309927048641</v>
+        <v>0.7851813619537003</v>
       </c>
       <c r="F22">
-        <v>0.7290799185180014</v>
+        <v>0.7298794119403884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.791220235009965</v>
+        <v>0.7919041611824204</v>
       </c>
       <c r="K22">
-        <v>0.7940260288708637</v>
+        <v>0.7946928456466998</v>
       </c>
       <c r="L22">
-        <v>0.8060490172804184</v>
+        <v>0.8066744554025989</v>
       </c>
       <c r="M22">
-        <v>0.7529609587566456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7537226965134869</v>
+      </c>
+      <c r="N22">
+        <v>0.851778364533354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7620532604675631</v>
+        <v>0.7626690426861104</v>
       </c>
       <c r="D23">
-        <v>0.789139003527799</v>
+        <v>0.7897018835658371</v>
       </c>
       <c r="E23">
-        <v>0.8005432266610851</v>
+        <v>0.8010711697503858</v>
       </c>
       <c r="F23">
-        <v>0.749726725124112</v>
+        <v>0.7503664869942119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8073989827285155</v>
+        <v>0.8079561412616448</v>
       </c>
       <c r="K23">
-        <v>0.8100299085267904</v>
+        <v>0.810572088491372</v>
       </c>
       <c r="L23">
-        <v>0.8210226790929416</v>
+        <v>0.8215319713423644</v>
       </c>
       <c r="M23">
-        <v>0.7721777399735817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7727903079074921</v>
+      </c>
+      <c r="N23">
+        <v>0.8632558223040044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8162371598669945</v>
+        <v>0.8165990916154472</v>
       </c>
       <c r="D24">
-        <v>0.8377742138214735</v>
+        <v>0.8381098025685305</v>
       </c>
       <c r="E24">
-        <v>0.8461697764078588</v>
+        <v>0.8464857507970455</v>
       </c>
       <c r="F24">
-        <v>0.8078163858830437</v>
+        <v>0.8081870335583561</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8532491793424796</v>
+        <v>0.8535860250555545</v>
       </c>
       <c r="K24">
-        <v>0.8554077471425369</v>
+        <v>0.8557339009408241</v>
       </c>
       <c r="L24">
-        <v>0.8635703333714774</v>
+        <v>0.8638776623831426</v>
       </c>
       <c r="M24">
-        <v>0.8263358819091071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8266950134796379</v>
+      </c>
+      <c r="N24">
+        <v>0.8960353436454451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8605230271407929</v>
+        <v>0.8607622809628633</v>
       </c>
       <c r="D25">
-        <v>0.8778129493265313</v>
+        <v>0.8780367180103875</v>
       </c>
       <c r="E25">
-        <v>0.883857388590011</v>
+        <v>0.8840685007890163</v>
       </c>
       <c r="F25">
-        <v>0.8552000130896071</v>
+        <v>0.8554427748800102</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8908668778743165</v>
+        <v>0.8910937930195646</v>
       </c>
       <c r="K25">
-        <v>0.8926590830258525</v>
+        <v>0.8928779751464905</v>
       </c>
       <c r="L25">
-        <v>0.8985729463477177</v>
+        <v>0.8987795407330093</v>
       </c>
       <c r="M25">
-        <v>0.8705565756533415</v>
+        <v>0.8707936658400615</v>
+      </c>
+      <c r="N25">
+        <v>0.9230888234379582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C2">
-        <v>0.8890742694217879</v>
+        <v>0.8791719799988924</v>
       </c>
       <c r="D2">
-        <v>0.9037401103302787</v>
+        <v>0.8891262375190341</v>
       </c>
       <c r="E2">
-        <v>0.9083065527642358</v>
+        <v>0.9008018878283244</v>
       </c>
       <c r="F2">
-        <v>0.885733822653311</v>
+        <v>0.898706402045433</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.029298886303744</v>
+      </c>
       <c r="J2">
-        <v>0.9151673625861507</v>
+        <v>0.9056832413158493</v>
       </c>
       <c r="K2">
-        <v>0.916726073553736</v>
+        <v>0.9023817221765078</v>
       </c>
       <c r="L2">
-        <v>0.9212106063221909</v>
+        <v>0.9138411262379913</v>
       </c>
       <c r="M2">
-        <v>0.8990535367475999</v>
+        <v>0.9117839124641269</v>
       </c>
       <c r="N2">
-        <v>0.9404684907749111</v>
+        <v>0.9069694154018376</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9071394362093713</v>
+        <v>0.9157352901569668</v>
       </c>
       <c r="D3">
-        <v>0.9201769787887207</v>
+        <v>0.9244112421392693</v>
       </c>
       <c r="E3">
-        <v>0.9238198388791868</v>
+        <v>0.9338357867542938</v>
       </c>
       <c r="F3">
-        <v>0.9050719096463193</v>
+        <v>0.9337991622407262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.033255671683418</v>
+      </c>
       <c r="J3">
-        <v>0.9305269619445714</v>
+        <v>0.9388200968855742</v>
       </c>
       <c r="K3">
-        <v>0.9319444943414674</v>
+        <v>0.9361122812699761</v>
       </c>
       <c r="L3">
-        <v>0.9355301160111855</v>
+        <v>0.9453916229657594</v>
       </c>
       <c r="M3">
-        <v>0.9170830874268215</v>
+        <v>0.9453555554903024</v>
       </c>
       <c r="N3">
-        <v>0.9515510310617771</v>
+        <v>0.940153329107322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9179559055408025</v>
+        <v>0.9358532059999422</v>
       </c>
       <c r="D4">
-        <v>0.9300302509168591</v>
+        <v>0.9438511336740893</v>
       </c>
       <c r="E4">
-        <v>0.9331234159841069</v>
+        <v>0.9520399888940509</v>
       </c>
       <c r="F4">
-        <v>0.9166572159435384</v>
+        <v>0.9531438700035961</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.035420808220948</v>
+      </c>
       <c r="J4">
-        <v>0.939719661639297</v>
+        <v>0.9570534139862245</v>
       </c>
       <c r="K4">
-        <v>0.9410535610028193</v>
+        <v>0.95467804357831</v>
       </c>
       <c r="L4">
-        <v>0.9441021311175992</v>
+        <v>0.9627539198555489</v>
       </c>
       <c r="M4">
-        <v>0.9278777359658862</v>
+        <v>0.9638427579760437</v>
       </c>
       <c r="N4">
-        <v>0.9581780256018028</v>
+        <v>0.9584125396096456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9223242269150831</v>
+        <v>0.9436966759747042</v>
       </c>
       <c r="D5">
-        <v>0.9340118524201958</v>
+        <v>0.9514346201301687</v>
       </c>
       <c r="E5">
-        <v>0.93688359360561</v>
+        <v>0.9591417736602684</v>
       </c>
       <c r="F5">
-        <v>0.9213378431847034</v>
+        <v>0.96069233313806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.036260647380787</v>
+      </c>
       <c r="J5">
-        <v>0.9434309341961147</v>
+        <v>0.9641608836182382</v>
       </c>
       <c r="K5">
-        <v>0.9447312349657955</v>
+        <v>0.9619164487501085</v>
       </c>
       <c r="L5">
-        <v>0.9475630540550568</v>
+        <v>0.9695219676784613</v>
       </c>
       <c r="M5">
-        <v>0.9322371823266403</v>
+        <v>0.9710523265855642</v>
       </c>
       <c r="N5">
-        <v>0.960851714878861</v>
+        <v>0.965530102663775</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9230479319945573</v>
+        <v>0.9449822817776938</v>
       </c>
       <c r="D6">
-        <v>0.9346716096903129</v>
+        <v>0.9526778341986076</v>
       </c>
       <c r="E6">
-        <v>0.9375066957977281</v>
+        <v>0.9603060242264899</v>
       </c>
       <c r="F6">
-        <v>0.9221133994601902</v>
+        <v>0.9619299205232256</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.03639801879943</v>
+      </c>
       <c r="J6">
-        <v>0.9440457010982317</v>
+        <v>0.9653257513318783</v>
       </c>
       <c r="K6">
-        <v>0.9453404450417658</v>
+        <v>0.963102854419438</v>
       </c>
       <c r="L6">
-        <v>0.9481363596057614</v>
+        <v>0.9706312062568867</v>
       </c>
       <c r="M6">
-        <v>0.9329594146840352</v>
+        <v>0.9722341046605026</v>
       </c>
       <c r="N6">
-        <v>0.9612944953147443</v>
+        <v>0.966696624623181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9180149441099698</v>
+        <v>0.9359602021823347</v>
       </c>
       <c r="D7">
-        <v>0.9300840544537622</v>
+        <v>0.9439545674261987</v>
       </c>
       <c r="E7">
-        <v>0.9331742248982532</v>
+        <v>0.9521368519010316</v>
       </c>
       <c r="F7">
-        <v>0.9167204679480055</v>
+        <v>0.9532468180098337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.035432283668076</v>
+      </c>
       <c r="J7">
-        <v>0.9397698255985377</v>
+        <v>0.957150376468803</v>
       </c>
       <c r="K7">
-        <v>0.9411032702083821</v>
+        <v>0.9547767869371909</v>
       </c>
       <c r="L7">
-        <v>0.944148910494496</v>
+        <v>0.9628462517135382</v>
       </c>
       <c r="M7">
-        <v>0.9279366547760448</v>
+        <v>0.9639411010579518</v>
       </c>
       <c r="N7">
-        <v>0.9582141723401296</v>
+        <v>0.9585096397900712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8953809925845698</v>
+        <v>0.8924526993415128</v>
       </c>
       <c r="D8">
-        <v>0.9094754274767757</v>
+        <v>0.9019352723683661</v>
       </c>
       <c r="E8">
-        <v>0.9137185634372086</v>
+        <v>0.9127919999180457</v>
       </c>
       <c r="F8">
-        <v>0.8924836309006383</v>
+        <v>0.9114427519989727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.030737630980945</v>
+      </c>
       <c r="J8">
-        <v>0.9205301170125221</v>
+        <v>0.9177179323142223</v>
       </c>
       <c r="K8">
-        <v>0.9220393182657577</v>
+        <v>0.914630679718362</v>
       </c>
       <c r="L8">
-        <v>0.9262096774962528</v>
+        <v>0.9252989314585327</v>
       </c>
       <c r="M8">
-        <v>0.9053479774700839</v>
+        <v>0.9239727910531982</v>
       </c>
       <c r="N8">
-        <v>0.9443389612929953</v>
+        <v>0.9190211970418266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C9">
-        <v>0.8468279693197095</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D9">
-        <v>0.865415206118337</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E9">
-        <v>0.8721780324459075</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F9">
-        <v>0.8405361001603404</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J9">
-        <v>0.8792508084169379</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K9">
-        <v>0.881148058821289</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L9">
-        <v>0.8877522043883641</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M9">
-        <v>0.8568824653203407</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N9">
-        <v>0.91454078807441</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C10">
-        <v>0.8037503284610574</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D10">
-        <v>0.8265383727195272</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E10">
-        <v>0.8356128583344502</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F10">
-        <v>0.7944277528011955</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J10">
-        <v>0.8426931774531917</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K10">
-        <v>0.8449499886516706</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L10">
-        <v>0.8537557588613517</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M10">
-        <v>0.8138590576854481</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N10">
-        <v>0.8881932037077952</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C11">
-        <v>0.7799232429677329</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D11">
-        <v>0.8051415502336916</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E11">
-        <v>0.815534807080819</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F11">
-        <v>0.7688878017722157</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J11">
-        <v>0.8225267868095821</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K11">
-        <v>0.8249897847636904</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L11">
-        <v>0.8350374014780824</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M11">
-        <v>0.7900454072260719</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N11">
-        <v>0.8737010157427605</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C12">
-        <v>0.7697255614568478</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D12">
-        <v>0.7960104351940266</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E12">
-        <v>0.8069782760801287</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F12">
-        <v>0.7579444184048876</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J12">
-        <v>0.8139114880362173</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K12">
-        <v>0.8164644966668249</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L12">
-        <v>0.8270498709967609</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M12">
-        <v>0.7798484387694091</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N12">
-        <v>0.8675221188488463</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C13">
-        <v>0.7719913375015605</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D13">
-        <v>0.7980377922412619</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E13">
-        <v>0.8088774104636767</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F13">
-        <v>0.7603766421175682</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J13">
-        <v>0.8158247896392753</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K13">
-        <v>0.8183577038886074</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L13">
-        <v>0.8288232495341818</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M13">
-        <v>0.7821143547716622</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N13">
-        <v>0.868893637256816</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C14">
-        <v>0.7791136219231662</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D14">
-        <v>0.8044160034156792</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E14">
-        <v>0.8148546448979662</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F14">
-        <v>0.768019289569674</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J14">
-        <v>0.8218424257815108</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K14">
-        <v>0.8243125299808896</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L14">
-        <v>0.834402696183749</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M14">
-        <v>0.7892359651743047</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N14">
-        <v>0.8732099004120144</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C15">
-        <v>0.7832950394054116</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D15">
-        <v>0.8081643001819278</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E15">
-        <v>0.8183689670988474</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F15">
-        <v>0.7725043185766528</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J15">
-        <v>0.825377576080862</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K15">
-        <v>0.82781105171879</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L15">
-        <v>0.8376817248070491</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M15">
-        <v>0.7934162442475884</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N15">
-        <v>0.8757473354983517</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C16">
-        <v>0.8051865836266697</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D16">
-        <v>0.8278307406522492</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E16">
-        <v>0.8368267260100247</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F16">
-        <v>0.7959661730261791</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J16">
-        <v>0.8439102261925995</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K16">
-        <v>0.8461547848343332</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L16">
-        <v>0.8548863040352469</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M16">
-        <v>0.8152940530873155</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N16">
-        <v>0.8890689549644045</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C17">
-        <v>0.8172823288278233</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D17">
-        <v>0.8387257274685989</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E17">
-        <v>0.8470647599198893</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F17">
-        <v>0.8089184885723426</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J17">
-        <v>0.854165561903953</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K17">
-        <v>0.8563076870414236</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L17">
-        <v>0.8644163830987053</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M17">
-        <v>0.827377477969079</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N17">
-        <v>0.8964528094378252</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C18">
-        <v>0.8238891070384738</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D18">
-        <v>0.8446846771359126</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E18">
-        <v>0.852667884537742</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F18">
-        <v>0.8159906428712469</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J18">
-        <v>0.8597710315350603</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K18">
-        <v>0.8618577602401365</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L18">
-        <v>0.8696280584816657</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M18">
-        <v>0.8339763497599721</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N18">
-        <v>0.9004917884952756</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C19">
-        <v>0.8260753079018163</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D19">
-        <v>0.846657714430898</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E19">
-        <v>0.8545236255086637</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F19">
-        <v>0.8183305151209919</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J19">
-        <v>0.8616264509380155</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K19">
-        <v>0.8636949323803189</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L19">
-        <v>0.87135351763895</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M19">
-        <v>0.8361597686705557</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N19">
-        <v>0.9018291181648779</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C20">
-        <v>0.8160334006611569</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D20">
-        <v>0.8375998889512896</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E20">
-        <v>0.846006418914414</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F20">
-        <v>0.8075814065300746</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J20">
-        <v>0.8531062156747004</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K20">
-        <v>0.8552588560795388</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L20">
-        <v>0.8634316603027823</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M20">
-        <v>0.8261299556960258</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N20">
-        <v>0.8956897329533444</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C21">
-        <v>0.7770615911960005</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D21">
-        <v>0.8025775240526399</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E21">
-        <v>0.8131313731486043</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F21">
-        <v>0.7658177632843249</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J21">
-        <v>0.8201081530769898</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K21">
-        <v>0.8225962990227965</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L21">
-        <v>0.8327944192796464</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M21">
-        <v>0.7871842965548503</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N21">
-        <v>0.8719655612536512</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C22">
-        <v>0.7436158468704096</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D22">
-        <v>0.77271135174243</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E22">
-        <v>0.7851813619537003</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F22">
-        <v>0.7298794119403884</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J22">
-        <v>0.7919041611824204</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K22">
-        <v>0.7946928456466998</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L22">
-        <v>0.8066744554025989</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M22">
-        <v>0.7537226965134869</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N22">
-        <v>0.851778364533354</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C23">
-        <v>0.7626690426861104</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D23">
-        <v>0.7897018835658371</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E23">
-        <v>0.8010711697503858</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F23">
-        <v>0.7503664869942119</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J23">
-        <v>0.8079561412616448</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K23">
-        <v>0.810572088491372</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L23">
-        <v>0.8215319713423644</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M23">
-        <v>0.7727903079074921</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N23">
-        <v>0.8632558223040044</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C24">
-        <v>0.8165990916154472</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D24">
-        <v>0.8381098025685305</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E24">
-        <v>0.8464857507970455</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F24">
-        <v>0.8081870335583561</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J24">
-        <v>0.8535860250555545</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K24">
-        <v>0.8557339009408241</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L24">
-        <v>0.8638776623831426</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M24">
-        <v>0.8266950134796379</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N24">
-        <v>0.8960353436454451</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.049999999999999</v>
+      </c>
       <c r="C25">
-        <v>0.8607622809628633</v>
+        <v>0.7486270006861119</v>
       </c>
       <c r="D25">
-        <v>0.8780367180103875</v>
+        <v>0.7638100624738643</v>
       </c>
       <c r="E25">
-        <v>0.8840685007890163</v>
+        <v>0.7837322947901886</v>
       </c>
       <c r="F25">
-        <v>0.8554427748800102</v>
+        <v>0.7742991397031659</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.015354992124847</v>
+      </c>
       <c r="J25">
-        <v>0.8910937930195646</v>
+        <v>0.787758353314415</v>
       </c>
       <c r="K25">
-        <v>0.8928779751464905</v>
+        <v>0.7824007955019084</v>
       </c>
       <c r="L25">
-        <v>0.8987795407330093</v>
+        <v>0.8016818774912485</v>
       </c>
       <c r="M25">
-        <v>0.8707936658400615</v>
+        <v>0.792546607576373</v>
       </c>
       <c r="N25">
-        <v>0.9230888234379582</v>
+        <v>0.7888770605332674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8791719799988924</v>
+        <v>1.003937938948062</v>
       </c>
       <c r="D2">
-        <v>0.8891262375190341</v>
+        <v>1.018524485896724</v>
       </c>
       <c r="E2">
-        <v>0.9008018878283244</v>
+        <v>1.009765507721824</v>
       </c>
       <c r="F2">
-        <v>0.898706402045433</v>
+        <v>1.024366880682917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029298886303744</v>
+        <v>1.045357393869182</v>
       </c>
       <c r="J2">
-        <v>0.9056832413158493</v>
+        <v>1.026001501524235</v>
       </c>
       <c r="K2">
-        <v>0.9023817221765078</v>
+        <v>1.029731639427581</v>
       </c>
       <c r="L2">
-        <v>0.9138411262379913</v>
+        <v>1.021090449565373</v>
       </c>
       <c r="M2">
-        <v>0.9117839124641269</v>
+        <v>1.035496871111986</v>
       </c>
       <c r="N2">
-        <v>0.9069694154018376</v>
+        <v>1.027458541340418</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9157352901569668</v>
+        <v>1.00877830782846</v>
       </c>
       <c r="D3">
-        <v>0.9244112421392693</v>
+        <v>1.022852139548106</v>
       </c>
       <c r="E3">
-        <v>0.9338357867542938</v>
+        <v>1.013660511289634</v>
       </c>
       <c r="F3">
-        <v>0.9337991622407262</v>
+        <v>1.029016822748006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033255671683418</v>
+        <v>1.046405086217353</v>
       </c>
       <c r="J3">
-        <v>0.9388200968855742</v>
+        <v>1.029032494634007</v>
       </c>
       <c r="K3">
-        <v>0.9361122812699761</v>
+        <v>1.033200739733522</v>
       </c>
       <c r="L3">
-        <v>0.9453916229657594</v>
+        <v>1.024121536818972</v>
       </c>
       <c r="M3">
-        <v>0.9453555554903024</v>
+        <v>1.039291416351853</v>
       </c>
       <c r="N3">
-        <v>0.940153329107322</v>
+        <v>1.030493838808065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9358532059999422</v>
+        <v>1.011844051978342</v>
       </c>
       <c r="D4">
-        <v>0.9438511336740893</v>
+        <v>1.025598257718171</v>
       </c>
       <c r="E4">
-        <v>0.9520399888940509</v>
+        <v>1.016133527822785</v>
       </c>
       <c r="F4">
-        <v>0.9531438700035961</v>
+        <v>1.031967395549913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035420808220948</v>
+        <v>1.047057220813207</v>
       </c>
       <c r="J4">
-        <v>0.9570534139862245</v>
+        <v>1.030949562631235</v>
       </c>
       <c r="K4">
-        <v>0.95467804357831</v>
+        <v>1.035397247239616</v>
       </c>
       <c r="L4">
-        <v>0.9627539198555489</v>
+        <v>1.026041058150215</v>
       </c>
       <c r="M4">
-        <v>0.9638427579760437</v>
+        <v>1.041694723935812</v>
       </c>
       <c r="N4">
-        <v>0.9584125396096456</v>
+        <v>1.032413629261739</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9436966759747042</v>
+        <v>1.013117615466045</v>
       </c>
       <c r="D5">
-        <v>0.9514346201301687</v>
+        <v>1.026740228509228</v>
       </c>
       <c r="E5">
-        <v>0.9591417736602684</v>
+        <v>1.01716226195553</v>
       </c>
       <c r="F5">
-        <v>0.96069233313806</v>
+        <v>1.033194381494134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036260647380787</v>
+        <v>1.047325340081084</v>
       </c>
       <c r="J5">
-        <v>0.9641608836182382</v>
+        <v>1.031745266557947</v>
       </c>
       <c r="K5">
-        <v>0.9619164487501085</v>
+        <v>1.036309502253875</v>
       </c>
       <c r="L5">
-        <v>0.9695219676784613</v>
+        <v>1.02683835349566</v>
       </c>
       <c r="M5">
-        <v>0.9710523265855642</v>
+        <v>1.04269304632908</v>
       </c>
       <c r="N5">
-        <v>0.965530102663775</v>
+        <v>1.033210463179295</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9449822817776938</v>
+        <v>1.013330573383809</v>
       </c>
       <c r="D6">
-        <v>0.9526778341986076</v>
+        <v>1.026931250786945</v>
       </c>
       <c r="E6">
-        <v>0.9603060242264899</v>
+        <v>1.017334361847927</v>
       </c>
       <c r="F6">
-        <v>0.9619299205232256</v>
+        <v>1.033399624362536</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03639801879943</v>
+        <v>1.047370008242534</v>
       </c>
       <c r="J6">
-        <v>0.9653257513318783</v>
+        <v>1.03187827852506</v>
       </c>
       <c r="K6">
-        <v>0.963102854419438</v>
+        <v>1.036462030617464</v>
       </c>
       <c r="L6">
-        <v>0.9706312062568867</v>
+        <v>1.026971665155712</v>
       </c>
       <c r="M6">
-        <v>0.9722341046605026</v>
+        <v>1.042859975662257</v>
       </c>
       <c r="N6">
-        <v>0.966696624623181</v>
+        <v>1.033343664038659</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9359602021823347</v>
+        <v>1.01186112865076</v>
       </c>
       <c r="D7">
-        <v>0.9439545674261987</v>
+        <v>1.025613565289107</v>
       </c>
       <c r="E7">
-        <v>0.9521368519010316</v>
+        <v>1.01614731621377</v>
       </c>
       <c r="F7">
-        <v>0.9532468180098337</v>
+        <v>1.031983842728816</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035432283668076</v>
+        <v>1.047060826985657</v>
       </c>
       <c r="J7">
-        <v>0.957150376468803</v>
+        <v>1.030960234621971</v>
       </c>
       <c r="K7">
-        <v>0.9547767869371909</v>
+        <v>1.035409480171835</v>
       </c>
       <c r="L7">
-        <v>0.9628462517135382</v>
+        <v>1.026051749221236</v>
       </c>
       <c r="M7">
-        <v>0.9639411010579518</v>
+        <v>1.041708110283813</v>
       </c>
       <c r="N7">
-        <v>0.9585096397900712</v>
+        <v>1.032424316407926</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8924526993415128</v>
+        <v>1.005587861187697</v>
       </c>
       <c r="D8">
-        <v>0.9019352723683661</v>
+        <v>1.019998542000344</v>
       </c>
       <c r="E8">
-        <v>0.9127919999180457</v>
+        <v>1.011091888636627</v>
       </c>
       <c r="F8">
-        <v>0.9114427519989727</v>
+        <v>1.025950727381952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030737630980945</v>
+        <v>1.045716891571172</v>
       </c>
       <c r="J8">
-        <v>0.9177179323142223</v>
+        <v>1.027035203920425</v>
       </c>
       <c r="K8">
-        <v>0.914630679718362</v>
+        <v>1.03091426642909</v>
       </c>
       <c r="L8">
-        <v>0.9252989314585327</v>
+        <v>1.022123680488593</v>
       </c>
       <c r="M8">
-        <v>0.9239727910531982</v>
+        <v>1.036790288794535</v>
       </c>
       <c r="N8">
-        <v>0.9190211970418266</v>
+        <v>1.028493711712577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7486270006861119</v>
+        <v>0.9939972821606928</v>
       </c>
       <c r="D9">
-        <v>0.7638100624738643</v>
+        <v>1.009666941677853</v>
       </c>
       <c r="E9">
-        <v>0.7837322947901886</v>
+        <v>1.001801961596853</v>
       </c>
       <c r="F9">
-        <v>0.7742991397031659</v>
+        <v>1.014849133286637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015354992124847</v>
+        <v>1.043144625503952</v>
       </c>
       <c r="J9">
-        <v>0.787758353314415</v>
+        <v>1.019763807249108</v>
       </c>
       <c r="K9">
-        <v>0.7824007955019084</v>
+        <v>1.02260510261097</v>
       </c>
       <c r="L9">
-        <v>0.8016818774912485</v>
+        <v>1.014865870728341</v>
       </c>
       <c r="M9">
-        <v>0.792546607576373</v>
+        <v>1.027705801563482</v>
       </c>
       <c r="N9">
-        <v>0.7888770605332674</v>
+        <v>1.021211988823945</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7486270006861119</v>
+        <v>0.9858669603341002</v>
       </c>
       <c r="D10">
-        <v>0.7638100624738643</v>
+        <v>1.00245181793188</v>
       </c>
       <c r="E10">
-        <v>0.7837322947901886</v>
+        <v>0.9953233423370836</v>
       </c>
       <c r="F10">
-        <v>0.7742991397031659</v>
+        <v>1.007095390573521</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015354992124847</v>
+        <v>1.041282764031812</v>
       </c>
       <c r="J10">
-        <v>0.787758353314415</v>
+        <v>1.014652756013034</v>
       </c>
       <c r="K10">
-        <v>0.7824007955019084</v>
+        <v>1.016776944708092</v>
       </c>
       <c r="L10">
-        <v>0.8016818774912485</v>
+        <v>1.009777551807521</v>
       </c>
       <c r="M10">
-        <v>0.792546607576373</v>
+        <v>1.021337706505808</v>
       </c>
       <c r="N10">
-        <v>0.7888770605332674</v>
+        <v>1.01609367930887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7486270006861119</v>
+        <v>0.9822403555602058</v>
       </c>
       <c r="D11">
-        <v>0.7638100624738643</v>
+        <v>0.9992417982509529</v>
       </c>
       <c r="E11">
-        <v>0.7837322947901886</v>
+        <v>0.9924433583920463</v>
       </c>
       <c r="F11">
-        <v>0.7742991397031659</v>
+        <v>1.00364543066552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015354992124847</v>
+        <v>1.040439290299231</v>
       </c>
       <c r="J11">
-        <v>0.787758353314415</v>
+        <v>1.012371085881962</v>
       </c>
       <c r="K11">
-        <v>0.7824007955019084</v>
+        <v>1.014178027325072</v>
       </c>
       <c r="L11">
-        <v>0.8016818774912485</v>
+        <v>1.007509202922365</v>
       </c>
       <c r="M11">
-        <v>0.792546607576373</v>
+        <v>1.018498925401018</v>
       </c>
       <c r="N11">
-        <v>0.7888770605332674</v>
+        <v>1.013808768944501</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7486270006861119</v>
+        <v>0.980876361257334</v>
       </c>
       <c r="D12">
-        <v>0.7638100624738643</v>
+        <v>0.9980358072624906</v>
       </c>
       <c r="E12">
-        <v>0.7837322947901886</v>
+        <v>0.9913617352593317</v>
       </c>
       <c r="F12">
-        <v>0.7742991397031659</v>
+        <v>1.002349240249899</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015354992124847</v>
+        <v>1.040120164043325</v>
       </c>
       <c r="J12">
-        <v>0.787758353314415</v>
+        <v>1.011512713581969</v>
       </c>
       <c r="K12">
-        <v>0.7824007955019084</v>
+        <v>1.01320073510221</v>
       </c>
       <c r="L12">
-        <v>0.8016818774912485</v>
+        <v>1.00665632337203</v>
       </c>
       <c r="M12">
-        <v>0.792546607576373</v>
+        <v>1.017431570500377</v>
       </c>
       <c r="N12">
-        <v>0.7888770605332674</v>
+        <v>1.012949177657385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7486270006861119</v>
+        <v>0.9811697243317613</v>
       </c>
       <c r="D13">
-        <v>0.7638100624738643</v>
+        <v>0.9982951266728436</v>
       </c>
       <c r="E13">
-        <v>0.7837322947901886</v>
+        <v>0.9915942950851316</v>
       </c>
       <c r="F13">
-        <v>0.7742991397031659</v>
+        <v>1.002627957504722</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015354992124847</v>
+        <v>1.040188884947016</v>
       </c>
       <c r="J13">
-        <v>0.787758353314415</v>
+        <v>1.01169733816661</v>
       </c>
       <c r="K13">
-        <v>0.7824007955019084</v>
+        <v>1.013410918444396</v>
       </c>
       <c r="L13">
-        <v>0.8016818774912485</v>
+        <v>1.006839744720034</v>
       </c>
       <c r="M13">
-        <v>0.792546607576373</v>
+        <v>1.017661117262118</v>
       </c>
       <c r="N13">
-        <v>0.7888770605332674</v>
+        <v>1.013134064430114</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7486270006861119</v>
+        <v>0.9821279582254872</v>
       </c>
       <c r="D14">
-        <v>0.7638100624738643</v>
+        <v>0.9991423936007011</v>
       </c>
       <c r="E14">
-        <v>0.7837322947901886</v>
+        <v>0.9923541971129918</v>
       </c>
       <c r="F14">
-        <v>0.7742991397031659</v>
+        <v>1.003538592431373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015354992124847</v>
+        <v>1.040413031347006</v>
       </c>
       <c r="J14">
-        <v>0.787758353314415</v>
+        <v>1.01230035745215</v>
       </c>
       <c r="K14">
-        <v>0.7824007955019084</v>
+        <v>1.014097491384643</v>
       </c>
       <c r="L14">
-        <v>0.8016818774912485</v>
+        <v>1.007438917279446</v>
       </c>
       <c r="M14">
-        <v>0.792546607576373</v>
+        <v>1.018410964902688</v>
       </c>
       <c r="N14">
-        <v>0.7888770605332674</v>
+        <v>1.013737940072206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7486270006861119</v>
+        <v>0.9827160865472351</v>
       </c>
       <c r="D15">
-        <v>0.7638100624738643</v>
+        <v>0.99966259092714</v>
       </c>
       <c r="E15">
-        <v>0.7837322947901886</v>
+        <v>0.9928208049590342</v>
       </c>
       <c r="F15">
-        <v>0.7742991397031659</v>
+        <v>1.004097688369011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015354992124847</v>
+        <v>1.04055035686169</v>
       </c>
       <c r="J15">
-        <v>0.787758353314415</v>
+        <v>1.012670441246203</v>
       </c>
       <c r="K15">
-        <v>0.7824007955019084</v>
+        <v>1.014518910084989</v>
       </c>
       <c r="L15">
-        <v>0.8016818774912485</v>
+        <v>1.007806703844375</v>
       </c>
       <c r="M15">
-        <v>0.792546607576373</v>
+        <v>1.018871239434259</v>
       </c>
       <c r="N15">
-        <v>0.7888770605332674</v>
+        <v>1.014108549427695</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7486270006861119</v>
+        <v>0.9861053293234919</v>
       </c>
       <c r="D16">
-        <v>0.7638100624738643</v>
+        <v>1.002662985173846</v>
       </c>
       <c r="E16">
-        <v>0.7837322947901886</v>
+        <v>0.9955128494798008</v>
       </c>
       <c r="F16">
-        <v>0.7742991397031659</v>
+        <v>1.007322334855912</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015354992124847</v>
+        <v>1.041337938655027</v>
       </c>
       <c r="J16">
-        <v>0.787758353314415</v>
+        <v>1.014802691850328</v>
       </c>
       <c r="K16">
-        <v>0.7824007955019084</v>
+        <v>1.016947787579551</v>
       </c>
       <c r="L16">
-        <v>0.8016818774912485</v>
+        <v>1.009926678678408</v>
       </c>
       <c r="M16">
-        <v>0.792546607576373</v>
+        <v>1.021524335900553</v>
       </c>
       <c r="N16">
-        <v>0.7888770605332674</v>
+        <v>1.016243828072251</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7486270006861119</v>
+        <v>0.9882022394132259</v>
       </c>
       <c r="D17">
-        <v>0.7638100624738643</v>
+        <v>1.004521561659833</v>
       </c>
       <c r="E17">
-        <v>0.7837322947901886</v>
+        <v>0.997181057297735</v>
       </c>
       <c r="F17">
-        <v>0.7742991397031659</v>
+        <v>1.009319736000343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015354992124847</v>
+        <v>1.041821836422094</v>
       </c>
       <c r="J17">
-        <v>0.787758353314415</v>
+        <v>1.016121461254669</v>
       </c>
       <c r="K17">
-        <v>0.7824007955019084</v>
+        <v>1.018450773284222</v>
       </c>
       <c r="L17">
-        <v>0.8016818774912485</v>
+        <v>1.011238693983093</v>
       </c>
       <c r="M17">
-        <v>0.792546607576373</v>
+        <v>1.023166306197725</v>
       </c>
       <c r="N17">
-        <v>0.7888770605332674</v>
+        <v>1.017564470280411</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7486270006861119</v>
+        <v>0.9894151615941813</v>
       </c>
       <c r="D18">
-        <v>0.7638100624738643</v>
+        <v>1.005597410863646</v>
       </c>
       <c r="E18">
-        <v>0.7837322947901886</v>
+        <v>0.9981469333960251</v>
       </c>
       <c r="F18">
-        <v>0.7742991397031659</v>
+        <v>1.010475916136404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.015354992124847</v>
+        <v>1.042100505145564</v>
       </c>
       <c r="J18">
-        <v>0.787758353314415</v>
+        <v>1.016884102871566</v>
       </c>
       <c r="K18">
-        <v>0.7824007955019084</v>
+        <v>1.019320220152571</v>
       </c>
       <c r="L18">
-        <v>0.8016818774912485</v>
+        <v>1.01199773002971</v>
       </c>
       <c r="M18">
-        <v>0.792546607576373</v>
+        <v>1.024116238937274</v>
       </c>
       <c r="N18">
-        <v>0.7888770605332674</v>
+        <v>1.01832819493588</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7486270006861119</v>
+        <v>0.989827039904317</v>
       </c>
       <c r="D19">
-        <v>0.7638100624738643</v>
+        <v>1.005962874150853</v>
       </c>
       <c r="E19">
-        <v>0.7837322947901886</v>
+        <v>0.9984750763598406</v>
       </c>
       <c r="F19">
-        <v>0.7742991397031659</v>
+        <v>1.010868663034807</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.015354992124847</v>
+        <v>1.042194923117961</v>
       </c>
       <c r="J19">
-        <v>0.787758353314415</v>
+        <v>1.01714304515394</v>
       </c>
       <c r="K19">
-        <v>0.7824007955019084</v>
+        <v>1.0196154728558</v>
       </c>
       <c r="L19">
-        <v>0.8016818774912485</v>
+        <v>1.012255498915027</v>
       </c>
       <c r="M19">
-        <v>0.792546607576373</v>
+        <v>1.02443883821926</v>
       </c>
       <c r="N19">
-        <v>0.7888770605332674</v>
+        <v>1.018587504945997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7486270006861119</v>
+        <v>0.9879783194967436</v>
       </c>
       <c r="D20">
-        <v>0.7638100624738643</v>
+        <v>1.004323010213876</v>
       </c>
       <c r="E20">
-        <v>0.7837322947901886</v>
+        <v>0.997002819632601</v>
       </c>
       <c r="F20">
-        <v>0.7742991397031659</v>
+        <v>1.009106356967595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015354992124847</v>
+        <v>1.041770290689286</v>
       </c>
       <c r="J20">
-        <v>0.787758353314415</v>
+        <v>1.015980653694899</v>
       </c>
       <c r="K20">
-        <v>0.7824007955019084</v>
+        <v>1.018290268251885</v>
       </c>
       <c r="L20">
-        <v>0.8016818774912485</v>
+        <v>1.011098576375417</v>
       </c>
       <c r="M20">
-        <v>0.792546607576373</v>
+        <v>1.02299094996544</v>
       </c>
       <c r="N20">
-        <v>0.7888770605332674</v>
+        <v>1.017423462757756</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7486270006861119</v>
+        <v>0.9818462572287544</v>
       </c>
       <c r="D21">
-        <v>0.7638100624738643</v>
+        <v>0.998893277653166</v>
       </c>
       <c r="E21">
-        <v>0.7837322947901886</v>
+        <v>0.9921307579741957</v>
       </c>
       <c r="F21">
-        <v>0.7742991397031659</v>
+        <v>1.003270846417938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015354992124847</v>
+        <v>1.040347188420357</v>
       </c>
       <c r="J21">
-        <v>0.787758353314415</v>
+        <v>1.012123087752547</v>
       </c>
       <c r="K21">
-        <v>0.7824007955019084</v>
+        <v>1.013895647607267</v>
       </c>
       <c r="L21">
-        <v>0.8016818774912485</v>
+        <v>1.007262765122369</v>
       </c>
       <c r="M21">
-        <v>0.792546607576373</v>
+        <v>1.018190515448716</v>
       </c>
       <c r="N21">
-        <v>0.7888770605332674</v>
+        <v>1.013560418629296</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7486270006861119</v>
+        <v>0.9778924041784842</v>
       </c>
       <c r="D22">
-        <v>0.7638100624738643</v>
+        <v>0.9954000186056176</v>
       </c>
       <c r="E22">
-        <v>0.7837322947901886</v>
+        <v>0.9889984741783432</v>
       </c>
       <c r="F22">
-        <v>0.7742991397031659</v>
+        <v>0.9995162028108955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015354992124847</v>
+        <v>1.039418617339213</v>
       </c>
       <c r="J22">
-        <v>0.787758353314415</v>
+        <v>1.009634550913499</v>
       </c>
       <c r="K22">
-        <v>0.7824007955019084</v>
+        <v>1.011063156141033</v>
       </c>
       <c r="L22">
-        <v>0.8016818774912485</v>
+        <v>1.004791069908571</v>
       </c>
       <c r="M22">
-        <v>0.792546607576373</v>
+        <v>1.015097249914338</v>
       </c>
       <c r="N22">
-        <v>0.7888770605332674</v>
+        <v>1.011068347782498</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7486270006861119</v>
+        <v>0.9799980852924691</v>
       </c>
       <c r="D23">
-        <v>0.7638100624738643</v>
+        <v>0.9972596510869787</v>
       </c>
       <c r="E23">
-        <v>0.7837322947901886</v>
+        <v>0.9906657283791098</v>
       </c>
       <c r="F23">
-        <v>0.7742991397031659</v>
+        <v>1.001515016610088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015354992124847</v>
+        <v>1.039914153989477</v>
       </c>
       <c r="J23">
-        <v>0.787758353314415</v>
+        <v>1.010959953598986</v>
       </c>
       <c r="K23">
-        <v>0.7824007955019084</v>
+        <v>1.012571515731711</v>
       </c>
       <c r="L23">
-        <v>0.8016818774912485</v>
+        <v>1.006107236744381</v>
       </c>
       <c r="M23">
-        <v>0.792546607576373</v>
+        <v>1.016744403201709</v>
       </c>
       <c r="N23">
-        <v>0.7888770605332674</v>
+        <v>1.012395632691824</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7486270006861119</v>
+        <v>0.9880795306258369</v>
       </c>
       <c r="D24">
-        <v>0.7638100624738643</v>
+        <v>1.004412752434809</v>
       </c>
       <c r="E24">
-        <v>0.7837322947901886</v>
+        <v>0.997083379644856</v>
       </c>
       <c r="F24">
-        <v>0.7742991397031659</v>
+        <v>1.009202801119399</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015354992124847</v>
+        <v>1.041793593036153</v>
       </c>
       <c r="J24">
-        <v>0.787758353314415</v>
+        <v>1.01604429884573</v>
       </c>
       <c r="K24">
-        <v>0.7824007955019084</v>
+        <v>1.018362815830989</v>
       </c>
       <c r="L24">
-        <v>0.8016818774912485</v>
+        <v>1.011161908736171</v>
       </c>
       <c r="M24">
-        <v>0.792546607576373</v>
+        <v>1.023070209955505</v>
       </c>
       <c r="N24">
-        <v>0.7888770605332674</v>
+        <v>1.017487198292001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7486270006861119</v>
+        <v>0.9970614891059026</v>
       </c>
       <c r="D25">
-        <v>0.7638100624738643</v>
+        <v>1.012393022809302</v>
       </c>
       <c r="E25">
-        <v>0.7837322947901886</v>
+        <v>1.00425169616766</v>
       </c>
       <c r="F25">
-        <v>0.7742991397031659</v>
+        <v>1.017778506832398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.015354992124847</v>
+        <v>1.043834769651368</v>
       </c>
       <c r="J25">
-        <v>0.787758353314415</v>
+        <v>1.021688152167738</v>
       </c>
       <c r="K25">
-        <v>0.7824007955019084</v>
+        <v>1.024801951737991</v>
       </c>
       <c r="L25">
-        <v>0.8016818774912485</v>
+        <v>1.016784366635906</v>
       </c>
       <c r="M25">
-        <v>0.792546607576373</v>
+        <v>1.030106963818156</v>
       </c>
       <c r="N25">
-        <v>0.7888770605332674</v>
+        <v>1.023139066533086</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003937938948062</v>
+        <v>1.038095141472792</v>
       </c>
       <c r="D2">
-        <v>1.018524485896724</v>
+        <v>1.047694733142173</v>
       </c>
       <c r="E2">
-        <v>1.009765507721824</v>
+        <v>1.036793429124184</v>
       </c>
       <c r="F2">
-        <v>1.024366880682917</v>
+        <v>1.055374303016986</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045357393869182</v>
+        <v>1.035724590990446</v>
       </c>
       <c r="J2">
-        <v>1.026001501524235</v>
+        <v>1.043194441642306</v>
       </c>
       <c r="K2">
-        <v>1.029731639427581</v>
+        <v>1.0504566536221</v>
       </c>
       <c r="L2">
-        <v>1.021090449565373</v>
+        <v>1.039586154858086</v>
       </c>
       <c r="M2">
-        <v>1.035496871111986</v>
+        <v>1.058114936407015</v>
       </c>
       <c r="N2">
-        <v>1.027458541340418</v>
+        <v>1.044675897405513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00877830782846</v>
+        <v>1.039119833424978</v>
       </c>
       <c r="D3">
-        <v>1.022852139548106</v>
+        <v>1.048663467672557</v>
       </c>
       <c r="E3">
-        <v>1.013660511289634</v>
+        <v>1.037666788216304</v>
       </c>
       <c r="F3">
-        <v>1.029016822748006</v>
+        <v>1.056419720135004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046405086217353</v>
+        <v>1.035878134986104</v>
       </c>
       <c r="J3">
-        <v>1.029032494634007</v>
+        <v>1.043863407352827</v>
       </c>
       <c r="K3">
-        <v>1.033200739733522</v>
+        <v>1.051236877508633</v>
       </c>
       <c r="L3">
-        <v>1.024121536818972</v>
+        <v>1.040269019901001</v>
       </c>
       <c r="M3">
-        <v>1.039291416351853</v>
+        <v>1.058973190397291</v>
       </c>
       <c r="N3">
-        <v>1.030493838808065</v>
+        <v>1.045345813124074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011844051978342</v>
+        <v>1.039783168070326</v>
       </c>
       <c r="D4">
-        <v>1.025598257718171</v>
+        <v>1.049290876425945</v>
       </c>
       <c r="E4">
-        <v>1.016133527822785</v>
+        <v>1.038232517236614</v>
       </c>
       <c r="F4">
-        <v>1.031967395549913</v>
+        <v>1.057096819229851</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047057220813207</v>
+        <v>1.035976093819804</v>
       </c>
       <c r="J4">
-        <v>1.030949562631235</v>
+        <v>1.044295977195598</v>
       </c>
       <c r="K4">
-        <v>1.035397247239616</v>
+        <v>1.051741688080043</v>
       </c>
       <c r="L4">
-        <v>1.026041058150215</v>
+        <v>1.040710849206836</v>
       </c>
       <c r="M4">
-        <v>1.041694723935812</v>
+        <v>1.059528577434564</v>
       </c>
       <c r="N4">
-        <v>1.032413629261739</v>
+        <v>1.045778997265638</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013117615466045</v>
+        <v>1.040062103162505</v>
       </c>
       <c r="D5">
-        <v>1.026740228509228</v>
+        <v>1.049554775424602</v>
       </c>
       <c r="E5">
-        <v>1.01716226195553</v>
+        <v>1.038470494237915</v>
       </c>
       <c r="F5">
-        <v>1.033194381494134</v>
+        <v>1.057381625223256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047325340081084</v>
+        <v>1.036016941524588</v>
       </c>
       <c r="J5">
-        <v>1.031745266557947</v>
+        <v>1.044477758192573</v>
       </c>
       <c r="K5">
-        <v>1.036309502253875</v>
+        <v>1.051953898685767</v>
       </c>
       <c r="L5">
-        <v>1.02683835349566</v>
+        <v>1.040896586411224</v>
       </c>
       <c r="M5">
-        <v>1.04269304632908</v>
+        <v>1.059762070887788</v>
       </c>
       <c r="N5">
-        <v>1.033210463179295</v>
+        <v>1.045961036412479</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013330573383809</v>
+        <v>1.040108941640916</v>
       </c>
       <c r="D6">
-        <v>1.026931250786945</v>
+        <v>1.049599093201919</v>
       </c>
       <c r="E6">
-        <v>1.017334361847927</v>
+        <v>1.038510460073247</v>
       </c>
       <c r="F6">
-        <v>1.033399624362536</v>
+        <v>1.057429454385298</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047370008242534</v>
+        <v>1.036023780426309</v>
       </c>
       <c r="J6">
-        <v>1.03187827852506</v>
+        <v>1.044508275820347</v>
       </c>
       <c r="K6">
-        <v>1.036462030617464</v>
+        <v>1.051989529072233</v>
       </c>
       <c r="L6">
-        <v>1.026971665155712</v>
+        <v>1.040927772026914</v>
       </c>
       <c r="M6">
-        <v>1.042859975662257</v>
+        <v>1.059801275959265</v>
       </c>
       <c r="N6">
-        <v>1.033343664038659</v>
+        <v>1.045991597378785</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01186112865076</v>
+        <v>1.039786894943138</v>
       </c>
       <c r="D7">
-        <v>1.025613565289107</v>
+        <v>1.04929440212243</v>
       </c>
       <c r="E7">
-        <v>1.01614731621377</v>
+        <v>1.038235696530169</v>
       </c>
       <c r="F7">
-        <v>1.031983842728816</v>
+        <v>1.057100624219086</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047060826985657</v>
+        <v>1.035976640942426</v>
       </c>
       <c r="J7">
-        <v>1.030960234621971</v>
+        <v>1.04429840644331</v>
       </c>
       <c r="K7">
-        <v>1.035409480171835</v>
+        <v>1.051744523695544</v>
       </c>
       <c r="L7">
-        <v>1.026051749221236</v>
+        <v>1.04071333106805</v>
       </c>
       <c r="M7">
-        <v>1.041708110283813</v>
+        <v>1.059531697351999</v>
       </c>
       <c r="N7">
-        <v>1.032424316407926</v>
+        <v>1.045781429963161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005587861187697</v>
+        <v>1.038441380584394</v>
       </c>
       <c r="D8">
-        <v>1.019998542000344</v>
+        <v>1.048022002469532</v>
       </c>
       <c r="E8">
-        <v>1.011091888636627</v>
+        <v>1.037088458655606</v>
       </c>
       <c r="F8">
-        <v>1.025950727381952</v>
+        <v>1.05572747278599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045716891571172</v>
+        <v>1.035776770401347</v>
       </c>
       <c r="J8">
-        <v>1.027035203920425</v>
+        <v>1.043420582619356</v>
       </c>
       <c r="K8">
-        <v>1.03091426642909</v>
+        <v>1.050720343173228</v>
       </c>
       <c r="L8">
-        <v>1.022123680488593</v>
+        <v>1.039816938128771</v>
       </c>
       <c r="M8">
-        <v>1.036790288794535</v>
+        <v>1.058404978817931</v>
       </c>
       <c r="N8">
-        <v>1.028493711712577</v>
+        <v>1.044902359528689</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9939972821606928</v>
+        <v>1.036072650739712</v>
       </c>
       <c r="D9">
-        <v>1.009666941677853</v>
+        <v>1.045784291293456</v>
       </c>
       <c r="E9">
-        <v>1.001801961596853</v>
+        <v>1.035071568024702</v>
       </c>
       <c r="F9">
-        <v>1.014849133286637</v>
+        <v>1.05331277059079</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043144625503952</v>
+        <v>1.035413909678506</v>
       </c>
       <c r="J9">
-        <v>1.019763807249108</v>
+        <v>1.041871505229953</v>
       </c>
       <c r="K9">
-        <v>1.02260510261097</v>
+        <v>1.048915278360661</v>
       </c>
       <c r="L9">
-        <v>1.014865870728341</v>
+        <v>1.038237177444352</v>
       </c>
       <c r="M9">
-        <v>1.027705801563482</v>
+        <v>1.056419887259453</v>
       </c>
       <c r="N9">
-        <v>1.021211988823945</v>
+        <v>1.043351082271711</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9858669603341002</v>
+        <v>1.034495018885999</v>
       </c>
       <c r="D10">
-        <v>1.00245181793188</v>
+        <v>1.044295498132332</v>
       </c>
       <c r="E10">
-        <v>0.9953233423370836</v>
+        <v>1.03373017666971</v>
       </c>
       <c r="F10">
-        <v>1.007095390573521</v>
+        <v>1.051706348322351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041282764031812</v>
+        <v>1.035164854307805</v>
       </c>
       <c r="J10">
-        <v>1.014652756013034</v>
+        <v>1.040837313481503</v>
       </c>
       <c r="K10">
-        <v>1.016776944708092</v>
+        <v>1.047711717360484</v>
       </c>
       <c r="L10">
-        <v>1.009777551807521</v>
+        <v>1.037183904706197</v>
       </c>
       <c r="M10">
-        <v>1.021337706505808</v>
+        <v>1.055096752836951</v>
       </c>
       <c r="N10">
-        <v>1.01609367930887</v>
+        <v>1.042315421852355</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9822403555602058</v>
+        <v>1.033812250385879</v>
       </c>
       <c r="D11">
-        <v>0.9992417982509529</v>
+        <v>1.043651557638314</v>
       </c>
       <c r="E11">
-        <v>0.9924433583920463</v>
+        <v>1.033150108978439</v>
       </c>
       <c r="F11">
-        <v>1.00364543066552</v>
+        <v>1.051011559078505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040439290299231</v>
+        <v>1.035055319378167</v>
       </c>
       <c r="J11">
-        <v>1.012371085881962</v>
+        <v>1.040389153869927</v>
       </c>
       <c r="K11">
-        <v>1.014178027325072</v>
+        <v>1.047190525456968</v>
       </c>
       <c r="L11">
-        <v>1.007509202922365</v>
+        <v>1.036727809807282</v>
       </c>
       <c r="M11">
-        <v>1.018498925401018</v>
+        <v>1.054523890058707</v>
       </c>
       <c r="N11">
-        <v>1.013808768944501</v>
+        <v>1.041866625802726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.980876361257334</v>
+        <v>1.033558693440418</v>
       </c>
       <c r="D12">
-        <v>0.9980358072624906</v>
+        <v>1.043412477764172</v>
       </c>
       <c r="E12">
-        <v>0.9913617352593317</v>
+        <v>1.032934761488393</v>
       </c>
       <c r="F12">
-        <v>1.002349240249899</v>
+        <v>1.050753604493241</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040120164043325</v>
+        <v>1.035014379279644</v>
       </c>
       <c r="J12">
-        <v>1.011512713581969</v>
+        <v>1.040222635633657</v>
       </c>
       <c r="K12">
-        <v>1.01320073510221</v>
+        <v>1.046996925760081</v>
       </c>
       <c r="L12">
-        <v>1.00665632337203</v>
+        <v>1.036558393252362</v>
       </c>
       <c r="M12">
-        <v>1.017431570500377</v>
+        <v>1.054311113325651</v>
       </c>
       <c r="N12">
-        <v>1.012949177657385</v>
+        <v>1.041699871091461</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9811697243317613</v>
+        <v>1.033613079835106</v>
       </c>
       <c r="D13">
-        <v>0.9982951266728436</v>
+        <v>1.043463756298281</v>
       </c>
       <c r="E13">
-        <v>0.9915942950851316</v>
+        <v>1.032980949018308</v>
       </c>
       <c r="F13">
-        <v>1.002627957504722</v>
+        <v>1.050808931139593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040188884947016</v>
+        <v>1.035023172556605</v>
       </c>
       <c r="J13">
-        <v>1.01169733816661</v>
+        <v>1.040258356697604</v>
       </c>
       <c r="K13">
-        <v>1.013410918444396</v>
+        <v>1.047038453807491</v>
       </c>
       <c r="L13">
-        <v>1.006839744720034</v>
+        <v>1.036594733787697</v>
       </c>
       <c r="M13">
-        <v>1.017661117262118</v>
+        <v>1.05435675419585</v>
       </c>
       <c r="N13">
-        <v>1.013134064430114</v>
+        <v>1.041735642883416</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9821279582254872</v>
+        <v>1.03379129019402</v>
       </c>
       <c r="D14">
-        <v>0.9991423936007011</v>
+        <v>1.043631793008581</v>
       </c>
       <c r="E14">
-        <v>0.9923541971129918</v>
+        <v>1.033132305927663</v>
       </c>
       <c r="F14">
-        <v>1.003538592431373</v>
+        <v>1.050990233998905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040413031347006</v>
+        <v>1.035051940435577</v>
       </c>
       <c r="J14">
-        <v>1.01230035745215</v>
+        <v>1.040375390474746</v>
       </c>
       <c r="K14">
-        <v>1.014097491384643</v>
+        <v>1.04717452256142</v>
       </c>
       <c r="L14">
-        <v>1.007438917279446</v>
+        <v>1.036713805832007</v>
       </c>
       <c r="M14">
-        <v>1.018410964902688</v>
+        <v>1.054506301660369</v>
       </c>
       <c r="N14">
-        <v>1.013737940072206</v>
+        <v>1.041852842861945</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9827160865472351</v>
+        <v>1.033901098593912</v>
       </c>
       <c r="D15">
-        <v>0.99966259092714</v>
+        <v>1.043735340340364</v>
       </c>
       <c r="E15">
-        <v>0.9928208049590342</v>
+        <v>1.033225577239411</v>
       </c>
       <c r="F15">
-        <v>1.004097688369011</v>
+        <v>1.051101956734553</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04055035686169</v>
+        <v>1.035069631633664</v>
       </c>
       <c r="J15">
-        <v>1.012670441246203</v>
+        <v>1.040447491996473</v>
       </c>
       <c r="K15">
-        <v>1.014518910084989</v>
+        <v>1.047258358255593</v>
       </c>
       <c r="L15">
-        <v>1.007806703844375</v>
+        <v>1.036787169719506</v>
       </c>
       <c r="M15">
-        <v>1.018871239434259</v>
+        <v>1.054598444130911</v>
       </c>
       <c r="N15">
-        <v>1.014108549427695</v>
+        <v>1.041925046776103</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9861053293234919</v>
+        <v>1.034540339503552</v>
       </c>
       <c r="D16">
-        <v>1.002662985173846</v>
+        <v>1.04433824949572</v>
       </c>
       <c r="E16">
-        <v>0.9955128494798008</v>
+        <v>1.033768690004797</v>
       </c>
       <c r="F16">
-        <v>1.007322334855912</v>
+        <v>1.051752476144886</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041337938655027</v>
+        <v>1.035172088151051</v>
       </c>
       <c r="J16">
-        <v>1.014802691850328</v>
+        <v>1.040867049069981</v>
       </c>
       <c r="K16">
-        <v>1.016947787579551</v>
+        <v>1.047746306307306</v>
       </c>
       <c r="L16">
-        <v>1.009926678678408</v>
+        <v>1.037214173828497</v>
       </c>
       <c r="M16">
-        <v>1.021524335900553</v>
+        <v>1.055134773227938</v>
       </c>
       <c r="N16">
-        <v>1.016243828072251</v>
+        <v>1.042345199668779</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9882022394132259</v>
+        <v>1.034941413963837</v>
       </c>
       <c r="D17">
-        <v>1.004521561659833</v>
+        <v>1.044716630810265</v>
       </c>
       <c r="E17">
-        <v>0.997181057297735</v>
+        <v>1.034109575267481</v>
       </c>
       <c r="F17">
-        <v>1.009319736000343</v>
+        <v>1.052160744946571</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041821836422094</v>
+        <v>1.035235903550826</v>
       </c>
       <c r="J17">
-        <v>1.016121461254669</v>
+        <v>1.041130133346177</v>
       </c>
       <c r="K17">
-        <v>1.018450773284222</v>
+        <v>1.048052372323496</v>
       </c>
       <c r="L17">
-        <v>1.011238693983093</v>
+        <v>1.037482017016711</v>
       </c>
       <c r="M17">
-        <v>1.023166306197725</v>
+        <v>1.055471215577258</v>
       </c>
       <c r="N17">
-        <v>1.017564470280411</v>
+        <v>1.042608657554824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9894151615941813</v>
+        <v>1.035175388300337</v>
       </c>
       <c r="D18">
-        <v>1.005597410863646</v>
+        <v>1.044937403346185</v>
       </c>
       <c r="E18">
-        <v>0.9981469333960251</v>
+        <v>1.034308481501379</v>
       </c>
       <c r="F18">
-        <v>1.010475916136404</v>
+        <v>1.052398958594554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042100505145564</v>
+        <v>1.035272962690113</v>
       </c>
       <c r="J18">
-        <v>1.016884102871566</v>
+        <v>1.041283552369775</v>
       </c>
       <c r="K18">
-        <v>1.019320220152571</v>
+        <v>1.048230891361914</v>
       </c>
       <c r="L18">
-        <v>1.01199773002971</v>
+        <v>1.037638243369218</v>
       </c>
       <c r="M18">
-        <v>1.024116238937274</v>
+        <v>1.055667462766284</v>
       </c>
       <c r="N18">
-        <v>1.01832819493588</v>
+        <v>1.042762294451033</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.989827039904317</v>
+        <v>1.035255173332249</v>
       </c>
       <c r="D19">
-        <v>1.005962874150853</v>
+        <v>1.045012692780527</v>
       </c>
       <c r="E19">
-        <v>0.9984750763598406</v>
+        <v>1.034376315852526</v>
       </c>
       <c r="F19">
-        <v>1.010868663034807</v>
+        <v>1.052480196397859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042194923117961</v>
+        <v>1.035285571190598</v>
       </c>
       <c r="J19">
-        <v>1.01714304515394</v>
+        <v>1.041335858582231</v>
       </c>
       <c r="K19">
-        <v>1.0196154728558</v>
+        <v>1.048291761031658</v>
       </c>
       <c r="L19">
-        <v>1.012255498915027</v>
+        <v>1.037691512154711</v>
       </c>
       <c r="M19">
-        <v>1.02443883821926</v>
+        <v>1.055734378998125</v>
       </c>
       <c r="N19">
-        <v>1.018587504945997</v>
+        <v>1.042814674944311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9879783194967436</v>
+        <v>1.034898378911987</v>
       </c>
       <c r="D20">
-        <v>1.004323010213876</v>
+        <v>1.044676026922618</v>
       </c>
       <c r="E20">
-        <v>0.997002819632601</v>
+        <v>1.034072993883765</v>
       </c>
       <c r="F20">
-        <v>1.009106356967595</v>
+        <v>1.052116933561833</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041770290689286</v>
+        <v>1.035229073651441</v>
       </c>
       <c r="J20">
-        <v>1.015980653694899</v>
+        <v>1.041101910363588</v>
       </c>
       <c r="K20">
-        <v>1.018290268251885</v>
+        <v>1.048019534755974</v>
       </c>
       <c r="L20">
-        <v>1.011098576375417</v>
+        <v>1.037453280185362</v>
       </c>
       <c r="M20">
-        <v>1.02299094996544</v>
+        <v>1.055435117866708</v>
       </c>
       <c r="N20">
-        <v>1.017423462757756</v>
+        <v>1.042580394492363</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9818462572287544</v>
+        <v>1.033738810202435</v>
       </c>
       <c r="D21">
-        <v>0.998893277653166</v>
+        <v>1.043582307391172</v>
       </c>
       <c r="E21">
-        <v>0.9921307579741957</v>
+        <v>1.033087731896522</v>
       </c>
       <c r="F21">
-        <v>1.003270846417938</v>
+        <v>1.050936841478957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040347188420357</v>
+        <v>1.035043476020035</v>
       </c>
       <c r="J21">
-        <v>1.012123087752547</v>
+        <v>1.040340928370783</v>
       </c>
       <c r="K21">
-        <v>1.013895647607267</v>
+        <v>1.047134453861395</v>
       </c>
       <c r="L21">
-        <v>1.007262765122369</v>
+        <v>1.036678742150305</v>
       </c>
       <c r="M21">
-        <v>1.018190515448716</v>
+        <v>1.054462263378937</v>
       </c>
       <c r="N21">
-        <v>1.013560418629296</v>
+        <v>1.041818331817842</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9778924041784842</v>
+        <v>1.033010053943221</v>
       </c>
       <c r="D22">
-        <v>0.9954000186056176</v>
+        <v>1.042895269387165</v>
       </c>
       <c r="E22">
-        <v>0.9889984741783432</v>
+        <v>1.032468927073248</v>
       </c>
       <c r="F22">
-        <v>0.9995162028108955</v>
+        <v>1.050195571529572</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039418617339213</v>
+        <v>1.034925314304643</v>
       </c>
       <c r="J22">
-        <v>1.009634550913499</v>
+        <v>1.039862169298037</v>
       </c>
       <c r="K22">
-        <v>1.011063156141033</v>
+        <v>1.046577934962226</v>
       </c>
       <c r="L22">
-        <v>1.004791069908571</v>
+        <v>1.036191744556296</v>
       </c>
       <c r="M22">
-        <v>1.015097249914338</v>
+        <v>1.053850649321034</v>
       </c>
       <c r="N22">
-        <v>1.011068347782498</v>
+        <v>1.041338892852298</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799980852924691</v>
+        <v>1.033396351942797</v>
       </c>
       <c r="D23">
-        <v>0.9972596510869787</v>
+        <v>1.043259421607639</v>
       </c>
       <c r="E23">
-        <v>0.9906657283791098</v>
+        <v>1.032796903601347</v>
       </c>
       <c r="F23">
-        <v>1.001515016610088</v>
+        <v>1.050588466143552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039914153989477</v>
+        <v>1.034988093220035</v>
       </c>
       <c r="J23">
-        <v>1.010959953598986</v>
+        <v>1.040115996780363</v>
       </c>
       <c r="K23">
-        <v>1.012571515731711</v>
+        <v>1.046872959160331</v>
       </c>
       <c r="L23">
-        <v>1.006107236744381</v>
+        <v>1.03644991241964</v>
       </c>
       <c r="M23">
-        <v>1.016744403201709</v>
+        <v>1.054174871816986</v>
       </c>
       <c r="N23">
-        <v>1.012395632691824</v>
+        <v>1.041593080798764</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9880795306258369</v>
+        <v>1.034917824493125</v>
       </c>
       <c r="D24">
-        <v>1.004412752434809</v>
+        <v>1.044694373858094</v>
       </c>
       <c r="E24">
-        <v>0.997083379644856</v>
+        <v>1.034089523208962</v>
       </c>
       <c r="F24">
-        <v>1.009202801119399</v>
+        <v>1.052136729801679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041793593036153</v>
+        <v>1.035232160293569</v>
       </c>
       <c r="J24">
-        <v>1.01604429884573</v>
+        <v>1.041114663218317</v>
       </c>
       <c r="K24">
-        <v>1.018362815830989</v>
+        <v>1.048034372651873</v>
       </c>
       <c r="L24">
-        <v>1.011161908736171</v>
+        <v>1.037466265128805</v>
       </c>
       <c r="M24">
-        <v>1.023070209955505</v>
+        <v>1.055451428849544</v>
       </c>
       <c r="N24">
-        <v>1.017487198292001</v>
+        <v>1.042593165457608</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9970614891059026</v>
+        <v>1.036684757245246</v>
       </c>
       <c r="D25">
-        <v>1.012393022809302</v>
+        <v>1.046362265118693</v>
       </c>
       <c r="E25">
-        <v>1.00425169616766</v>
+        <v>1.035592421792085</v>
       </c>
       <c r="F25">
-        <v>1.017778506832398</v>
+        <v>1.053936436337893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043834769651368</v>
+        <v>1.035508979348876</v>
       </c>
       <c r="J25">
-        <v>1.021688152167738</v>
+        <v>1.042272240948187</v>
       </c>
       <c r="K25">
-        <v>1.024801951737991</v>
+        <v>1.049381966031859</v>
       </c>
       <c r="L25">
-        <v>1.016784366635906</v>
+        <v>1.038645603577923</v>
       </c>
       <c r="M25">
-        <v>1.030106963818156</v>
+        <v>1.056933037961632</v>
       </c>
       <c r="N25">
-        <v>1.023139066533086</v>
+        <v>1.04375238708063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038095141472792</v>
+        <v>1.003937938948062</v>
       </c>
       <c r="D2">
-        <v>1.047694733142173</v>
+        <v>1.018524485896724</v>
       </c>
       <c r="E2">
-        <v>1.036793429124184</v>
+        <v>1.009765507721824</v>
       </c>
       <c r="F2">
-        <v>1.055374303016986</v>
+        <v>1.024366880682917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035724590990446</v>
+        <v>1.045357393869181</v>
       </c>
       <c r="J2">
-        <v>1.043194441642306</v>
+        <v>1.026001501524234</v>
       </c>
       <c r="K2">
-        <v>1.0504566536221</v>
+        <v>1.029731639427581</v>
       </c>
       <c r="L2">
-        <v>1.039586154858086</v>
+        <v>1.021090449565373</v>
       </c>
       <c r="M2">
-        <v>1.058114936407015</v>
+        <v>1.035496871111986</v>
       </c>
       <c r="N2">
-        <v>1.044675897405513</v>
+        <v>1.027458541340418</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039119833424978</v>
+        <v>1.00877830782846</v>
       </c>
       <c r="D3">
-        <v>1.048663467672557</v>
+        <v>1.022852139548106</v>
       </c>
       <c r="E3">
-        <v>1.037666788216304</v>
+        <v>1.013660511289634</v>
       </c>
       <c r="F3">
-        <v>1.056419720135004</v>
+        <v>1.029016822748006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035878134986104</v>
+        <v>1.046405086217353</v>
       </c>
       <c r="J3">
-        <v>1.043863407352827</v>
+        <v>1.029032494634008</v>
       </c>
       <c r="K3">
-        <v>1.051236877508633</v>
+        <v>1.033200739733522</v>
       </c>
       <c r="L3">
-        <v>1.040269019901001</v>
+        <v>1.024121536818972</v>
       </c>
       <c r="M3">
-        <v>1.058973190397291</v>
+        <v>1.039291416351853</v>
       </c>
       <c r="N3">
-        <v>1.045345813124074</v>
+        <v>1.030493838808065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039783168070326</v>
+        <v>1.011844051978342</v>
       </c>
       <c r="D4">
-        <v>1.049290876425945</v>
+        <v>1.025598257718171</v>
       </c>
       <c r="E4">
-        <v>1.038232517236614</v>
+        <v>1.016133527822784</v>
       </c>
       <c r="F4">
-        <v>1.057096819229851</v>
+        <v>1.031967395549913</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035976093819804</v>
+        <v>1.047057220813207</v>
       </c>
       <c r="J4">
-        <v>1.044295977195598</v>
+        <v>1.030949562631234</v>
       </c>
       <c r="K4">
-        <v>1.051741688080043</v>
+        <v>1.035397247239616</v>
       </c>
       <c r="L4">
-        <v>1.040710849206836</v>
+        <v>1.026041058150215</v>
       </c>
       <c r="M4">
-        <v>1.059528577434564</v>
+        <v>1.041694723935812</v>
       </c>
       <c r="N4">
-        <v>1.045778997265638</v>
+        <v>1.032413629261738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040062103162505</v>
+        <v>1.013117615466043</v>
       </c>
       <c r="D5">
-        <v>1.049554775424602</v>
+        <v>1.026740228509227</v>
       </c>
       <c r="E5">
-        <v>1.038470494237915</v>
+        <v>1.017162261955529</v>
       </c>
       <c r="F5">
-        <v>1.057381625223256</v>
+        <v>1.033194381494133</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036016941524588</v>
+        <v>1.047325340081084</v>
       </c>
       <c r="J5">
-        <v>1.044477758192573</v>
+        <v>1.031745266557946</v>
       </c>
       <c r="K5">
-        <v>1.051953898685767</v>
+        <v>1.036309502253873</v>
       </c>
       <c r="L5">
-        <v>1.040896586411224</v>
+        <v>1.026838353495659</v>
       </c>
       <c r="M5">
-        <v>1.059762070887788</v>
+        <v>1.042693046329079</v>
       </c>
       <c r="N5">
-        <v>1.045961036412479</v>
+        <v>1.033210463179294</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040108941640916</v>
+        <v>1.013330573383809</v>
       </c>
       <c r="D6">
-        <v>1.049599093201919</v>
+        <v>1.026931250786945</v>
       </c>
       <c r="E6">
-        <v>1.038510460073247</v>
+        <v>1.017334361847927</v>
       </c>
       <c r="F6">
-        <v>1.057429454385298</v>
+        <v>1.033399624362536</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036023780426309</v>
+        <v>1.047370008242534</v>
       </c>
       <c r="J6">
-        <v>1.044508275820347</v>
+        <v>1.03187827852506</v>
       </c>
       <c r="K6">
-        <v>1.051989529072233</v>
+        <v>1.036462030617464</v>
       </c>
       <c r="L6">
-        <v>1.040927772026914</v>
+        <v>1.026971665155712</v>
       </c>
       <c r="M6">
-        <v>1.059801275959265</v>
+        <v>1.042859975662257</v>
       </c>
       <c r="N6">
-        <v>1.045991597378785</v>
+        <v>1.033343664038658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039786894943138</v>
+        <v>1.011861128650759</v>
       </c>
       <c r="D7">
-        <v>1.04929440212243</v>
+        <v>1.025613565289107</v>
       </c>
       <c r="E7">
-        <v>1.038235696530169</v>
+        <v>1.01614731621377</v>
       </c>
       <c r="F7">
-        <v>1.057100624219086</v>
+        <v>1.031983842728816</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035976640942426</v>
+        <v>1.047060826985657</v>
       </c>
       <c r="J7">
-        <v>1.04429840644331</v>
+        <v>1.030960234621971</v>
       </c>
       <c r="K7">
-        <v>1.051744523695544</v>
+        <v>1.035409480171834</v>
       </c>
       <c r="L7">
-        <v>1.04071333106805</v>
+        <v>1.026051749221236</v>
       </c>
       <c r="M7">
-        <v>1.059531697351999</v>
+        <v>1.041708110283813</v>
       </c>
       <c r="N7">
-        <v>1.045781429963161</v>
+        <v>1.032424316407925</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038441380584394</v>
+        <v>1.005587861187697</v>
       </c>
       <c r="D8">
-        <v>1.048022002469532</v>
+        <v>1.019998542000344</v>
       </c>
       <c r="E8">
-        <v>1.037088458655606</v>
+        <v>1.011091888636627</v>
       </c>
       <c r="F8">
-        <v>1.05572747278599</v>
+        <v>1.025950727381951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035776770401347</v>
+        <v>1.045716891571172</v>
       </c>
       <c r="J8">
-        <v>1.043420582619356</v>
+        <v>1.027035203920425</v>
       </c>
       <c r="K8">
-        <v>1.050720343173228</v>
+        <v>1.03091426642909</v>
       </c>
       <c r="L8">
-        <v>1.039816938128771</v>
+        <v>1.022123680488593</v>
       </c>
       <c r="M8">
-        <v>1.058404978817931</v>
+        <v>1.036790288794535</v>
       </c>
       <c r="N8">
-        <v>1.044902359528689</v>
+        <v>1.028493711712577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036072650739712</v>
+        <v>0.9939972821606918</v>
       </c>
       <c r="D9">
-        <v>1.045784291293456</v>
+        <v>1.009666941677852</v>
       </c>
       <c r="E9">
-        <v>1.035071568024702</v>
+        <v>1.001801961596851</v>
       </c>
       <c r="F9">
-        <v>1.05331277059079</v>
+        <v>1.014849133286636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035413909678506</v>
+        <v>1.043144625503952</v>
       </c>
       <c r="J9">
-        <v>1.041871505229953</v>
+        <v>1.019763807249106</v>
       </c>
       <c r="K9">
-        <v>1.048915278360661</v>
+        <v>1.022605102610969</v>
       </c>
       <c r="L9">
-        <v>1.038237177444352</v>
+        <v>1.01486587072834</v>
       </c>
       <c r="M9">
-        <v>1.056419887259453</v>
+        <v>1.027705801563481</v>
       </c>
       <c r="N9">
-        <v>1.043351082271711</v>
+        <v>1.021211988823944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034495018885999</v>
+        <v>0.9858669603340996</v>
       </c>
       <c r="D10">
-        <v>1.044295498132332</v>
+        <v>1.002451817931879</v>
       </c>
       <c r="E10">
-        <v>1.03373017666971</v>
+        <v>0.9953233423370829</v>
       </c>
       <c r="F10">
-        <v>1.051706348322351</v>
+        <v>1.00709539057352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035164854307805</v>
+        <v>1.041282764031812</v>
       </c>
       <c r="J10">
-        <v>1.040837313481503</v>
+        <v>1.014652756013033</v>
       </c>
       <c r="K10">
-        <v>1.047711717360484</v>
+        <v>1.016776944708091</v>
       </c>
       <c r="L10">
-        <v>1.037183904706197</v>
+        <v>1.00977755180752</v>
       </c>
       <c r="M10">
-        <v>1.055096752836951</v>
+        <v>1.021337706505808</v>
       </c>
       <c r="N10">
-        <v>1.042315421852355</v>
+        <v>1.016093679308869</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033812250385879</v>
+        <v>0.9822403555602053</v>
       </c>
       <c r="D11">
-        <v>1.043651557638314</v>
+        <v>0.9992417982509524</v>
       </c>
       <c r="E11">
-        <v>1.033150108978439</v>
+        <v>0.9924433583920458</v>
       </c>
       <c r="F11">
-        <v>1.051011559078505</v>
+        <v>1.003645430665519</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035055319378167</v>
+        <v>1.040439290299231</v>
       </c>
       <c r="J11">
-        <v>1.040389153869927</v>
+        <v>1.012371085881962</v>
       </c>
       <c r="K11">
-        <v>1.047190525456968</v>
+        <v>1.014178027325071</v>
       </c>
       <c r="L11">
-        <v>1.036727809807282</v>
+        <v>1.007509202922365</v>
       </c>
       <c r="M11">
-        <v>1.054523890058707</v>
+        <v>1.018498925401017</v>
       </c>
       <c r="N11">
-        <v>1.041866625802726</v>
+        <v>1.013808768944501</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033558693440418</v>
+        <v>0.9808763612573338</v>
       </c>
       <c r="D12">
-        <v>1.043412477764172</v>
+        <v>0.9980358072624903</v>
       </c>
       <c r="E12">
-        <v>1.032934761488393</v>
+        <v>0.9913617352593316</v>
       </c>
       <c r="F12">
-        <v>1.050753604493241</v>
+        <v>1.002349240249899</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035014379279644</v>
+        <v>1.040120164043325</v>
       </c>
       <c r="J12">
-        <v>1.040222635633657</v>
+        <v>1.011512713581968</v>
       </c>
       <c r="K12">
-        <v>1.046996925760081</v>
+        <v>1.01320073510221</v>
       </c>
       <c r="L12">
-        <v>1.036558393252362</v>
+        <v>1.00665632337203</v>
       </c>
       <c r="M12">
-        <v>1.054311113325651</v>
+        <v>1.017431570500377</v>
       </c>
       <c r="N12">
-        <v>1.041699871091461</v>
+        <v>1.012949177657385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033613079835106</v>
+        <v>0.9811697243317604</v>
       </c>
       <c r="D13">
-        <v>1.043463756298281</v>
+        <v>0.998295126672843</v>
       </c>
       <c r="E13">
-        <v>1.032980949018308</v>
+        <v>0.991594295085131</v>
       </c>
       <c r="F13">
-        <v>1.050808931139593</v>
+        <v>1.002627957504721</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035023172556605</v>
+        <v>1.040188884947016</v>
       </c>
       <c r="J13">
-        <v>1.040258356697604</v>
+        <v>1.011697338166609</v>
       </c>
       <c r="K13">
-        <v>1.047038453807491</v>
+        <v>1.013410918444396</v>
       </c>
       <c r="L13">
-        <v>1.036594733787697</v>
+        <v>1.006839744720034</v>
       </c>
       <c r="M13">
-        <v>1.05435675419585</v>
+        <v>1.017661117262117</v>
       </c>
       <c r="N13">
-        <v>1.041735642883416</v>
+        <v>1.013134064430113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03379129019402</v>
+        <v>0.9821279582254875</v>
       </c>
       <c r="D14">
-        <v>1.043631793008581</v>
+        <v>0.9991423936007016</v>
       </c>
       <c r="E14">
-        <v>1.033132305927663</v>
+        <v>0.9923541971129918</v>
       </c>
       <c r="F14">
-        <v>1.050990233998905</v>
+        <v>1.003538592431374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035051940435577</v>
+        <v>1.040413031347006</v>
       </c>
       <c r="J14">
-        <v>1.040375390474746</v>
+        <v>1.01230035745215</v>
       </c>
       <c r="K14">
-        <v>1.04717452256142</v>
+        <v>1.014097491384644</v>
       </c>
       <c r="L14">
-        <v>1.036713805832007</v>
+        <v>1.007438917279446</v>
       </c>
       <c r="M14">
-        <v>1.054506301660369</v>
+        <v>1.018410964902689</v>
       </c>
       <c r="N14">
-        <v>1.041852842861945</v>
+        <v>1.013737940072206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033901098593912</v>
+        <v>0.9827160865472355</v>
       </c>
       <c r="D15">
-        <v>1.043735340340364</v>
+        <v>0.9996625909271403</v>
       </c>
       <c r="E15">
-        <v>1.033225577239411</v>
+        <v>0.9928208049590346</v>
       </c>
       <c r="F15">
-        <v>1.051101956734553</v>
+        <v>1.004097688369012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035069631633664</v>
+        <v>1.04055035686169</v>
       </c>
       <c r="J15">
-        <v>1.040447491996473</v>
+        <v>1.012670441246203</v>
       </c>
       <c r="K15">
-        <v>1.047258358255593</v>
+        <v>1.01451891008499</v>
       </c>
       <c r="L15">
-        <v>1.036787169719506</v>
+        <v>1.007806703844375</v>
       </c>
       <c r="M15">
-        <v>1.054598444130911</v>
+        <v>1.018871239434259</v>
       </c>
       <c r="N15">
-        <v>1.041925046776103</v>
+        <v>1.014108549427696</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034540339503552</v>
+        <v>0.9861053293234924</v>
       </c>
       <c r="D16">
-        <v>1.04433824949572</v>
+        <v>1.002662985173846</v>
       </c>
       <c r="E16">
-        <v>1.033768690004797</v>
+        <v>0.9955128494798015</v>
       </c>
       <c r="F16">
-        <v>1.051752476144886</v>
+        <v>1.007322334855913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035172088151051</v>
+        <v>1.041337938655027</v>
       </c>
       <c r="J16">
-        <v>1.040867049069981</v>
+        <v>1.014802691850328</v>
       </c>
       <c r="K16">
-        <v>1.047746306307306</v>
+        <v>1.016947787579551</v>
       </c>
       <c r="L16">
-        <v>1.037214173828497</v>
+        <v>1.009926678678408</v>
       </c>
       <c r="M16">
-        <v>1.055134773227938</v>
+        <v>1.021524335900553</v>
       </c>
       <c r="N16">
-        <v>1.042345199668779</v>
+        <v>1.016243828072252</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034941413963837</v>
+        <v>0.9882022394132247</v>
       </c>
       <c r="D17">
-        <v>1.044716630810265</v>
+        <v>1.004521561659832</v>
       </c>
       <c r="E17">
-        <v>1.034109575267481</v>
+        <v>0.9971810572977337</v>
       </c>
       <c r="F17">
-        <v>1.052160744946571</v>
+        <v>1.009319736000342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035235903550826</v>
+        <v>1.041821836422093</v>
       </c>
       <c r="J17">
-        <v>1.041130133346177</v>
+        <v>1.016121461254668</v>
       </c>
       <c r="K17">
-        <v>1.048052372323496</v>
+        <v>1.018450773284221</v>
       </c>
       <c r="L17">
-        <v>1.037482017016711</v>
+        <v>1.011238693983092</v>
       </c>
       <c r="M17">
-        <v>1.055471215577258</v>
+        <v>1.023166306197724</v>
       </c>
       <c r="N17">
-        <v>1.042608657554824</v>
+        <v>1.01756447028041</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035175388300337</v>
+        <v>0.9894151615941806</v>
       </c>
       <c r="D18">
-        <v>1.044937403346185</v>
+        <v>1.005597410863645</v>
       </c>
       <c r="E18">
-        <v>1.034308481501379</v>
+        <v>0.9981469333960248</v>
       </c>
       <c r="F18">
-        <v>1.052398958594554</v>
+        <v>1.010475916136403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035272962690113</v>
+        <v>1.042100505145564</v>
       </c>
       <c r="J18">
-        <v>1.041283552369775</v>
+        <v>1.016884102871565</v>
       </c>
       <c r="K18">
-        <v>1.048230891361914</v>
+        <v>1.01932022015257</v>
       </c>
       <c r="L18">
-        <v>1.037638243369218</v>
+        <v>1.01199773002971</v>
       </c>
       <c r="M18">
-        <v>1.055667462766284</v>
+        <v>1.024116238937274</v>
       </c>
       <c r="N18">
-        <v>1.042762294451033</v>
+        <v>1.018328194935879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035255173332249</v>
+        <v>0.9898270399043175</v>
       </c>
       <c r="D19">
-        <v>1.045012692780527</v>
+        <v>1.005962874150854</v>
       </c>
       <c r="E19">
-        <v>1.034376315852526</v>
+        <v>0.9984750763598406</v>
       </c>
       <c r="F19">
-        <v>1.052480196397859</v>
+        <v>1.010868663034807</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035285571190598</v>
+        <v>1.042194923117961</v>
       </c>
       <c r="J19">
-        <v>1.041335858582231</v>
+        <v>1.017143045153941</v>
       </c>
       <c r="K19">
-        <v>1.048291761031658</v>
+        <v>1.0196154728558</v>
       </c>
       <c r="L19">
-        <v>1.037691512154711</v>
+        <v>1.012255498915027</v>
       </c>
       <c r="M19">
-        <v>1.055734378998125</v>
+        <v>1.02443883821926</v>
       </c>
       <c r="N19">
-        <v>1.042814674944311</v>
+        <v>1.018587504945997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034898378911987</v>
+        <v>0.9879783194967429</v>
       </c>
       <c r="D20">
-        <v>1.044676026922618</v>
+        <v>1.004323010213875</v>
       </c>
       <c r="E20">
-        <v>1.034072993883765</v>
+        <v>0.9970028196326001</v>
       </c>
       <c r="F20">
-        <v>1.052116933561833</v>
+        <v>1.009106356967594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035229073651441</v>
+        <v>1.041770290689286</v>
       </c>
       <c r="J20">
-        <v>1.041101910363588</v>
+        <v>1.015980653694899</v>
       </c>
       <c r="K20">
-        <v>1.048019534755974</v>
+        <v>1.018290268251884</v>
       </c>
       <c r="L20">
-        <v>1.037453280185362</v>
+        <v>1.011098576375416</v>
       </c>
       <c r="M20">
-        <v>1.055435117866708</v>
+        <v>1.022990949965439</v>
       </c>
       <c r="N20">
-        <v>1.042580394492363</v>
+        <v>1.017423462757755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033738810202435</v>
+        <v>0.9818462572287535</v>
       </c>
       <c r="D21">
-        <v>1.043582307391172</v>
+        <v>0.9988932776531652</v>
       </c>
       <c r="E21">
-        <v>1.033087731896522</v>
+        <v>0.992130757974195</v>
       </c>
       <c r="F21">
-        <v>1.050936841478957</v>
+        <v>1.003270846417937</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035043476020035</v>
+        <v>1.040347188420357</v>
       </c>
       <c r="J21">
-        <v>1.040340928370783</v>
+        <v>1.012123087752546</v>
       </c>
       <c r="K21">
-        <v>1.047134453861395</v>
+        <v>1.013895647607266</v>
       </c>
       <c r="L21">
-        <v>1.036678742150305</v>
+        <v>1.007262765122368</v>
       </c>
       <c r="M21">
-        <v>1.054462263378937</v>
+        <v>1.018190515448715</v>
       </c>
       <c r="N21">
-        <v>1.041818331817842</v>
+        <v>1.013560418629295</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033010053943221</v>
+        <v>0.9778924041784838</v>
       </c>
       <c r="D22">
-        <v>1.042895269387165</v>
+        <v>0.9954000186056179</v>
       </c>
       <c r="E22">
-        <v>1.032468927073248</v>
+        <v>0.9889984741783432</v>
       </c>
       <c r="F22">
-        <v>1.050195571529572</v>
+        <v>0.9995162028108956</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034925314304643</v>
+        <v>1.039418617339213</v>
       </c>
       <c r="J22">
-        <v>1.039862169298037</v>
+        <v>1.009634550913499</v>
       </c>
       <c r="K22">
-        <v>1.046577934962226</v>
+        <v>1.011063156141033</v>
       </c>
       <c r="L22">
-        <v>1.036191744556296</v>
+        <v>1.004791069908571</v>
       </c>
       <c r="M22">
-        <v>1.053850649321034</v>
+        <v>1.015097249914338</v>
       </c>
       <c r="N22">
-        <v>1.041338892852298</v>
+        <v>1.011068347782498</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033396351942797</v>
+        <v>0.9799980852924695</v>
       </c>
       <c r="D23">
-        <v>1.043259421607639</v>
+        <v>0.997259651086979</v>
       </c>
       <c r="E23">
-        <v>1.032796903601347</v>
+        <v>0.99066572837911</v>
       </c>
       <c r="F23">
-        <v>1.050588466143552</v>
+        <v>1.001515016610089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034988093220035</v>
+        <v>1.039914153989477</v>
       </c>
       <c r="J23">
-        <v>1.040115996780363</v>
+        <v>1.010959953598986</v>
       </c>
       <c r="K23">
-        <v>1.046872959160331</v>
+        <v>1.012571515731711</v>
       </c>
       <c r="L23">
-        <v>1.03644991241964</v>
+        <v>1.006107236744381</v>
       </c>
       <c r="M23">
-        <v>1.054174871816986</v>
+        <v>1.016744403201709</v>
       </c>
       <c r="N23">
-        <v>1.041593080798764</v>
+        <v>1.012395632691824</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034917824493125</v>
+        <v>0.988079530625835</v>
       </c>
       <c r="D24">
-        <v>1.044694373858094</v>
+        <v>1.004412752434807</v>
       </c>
       <c r="E24">
-        <v>1.034089523208962</v>
+        <v>0.9970833796448542</v>
       </c>
       <c r="F24">
-        <v>1.052136729801679</v>
+        <v>1.009202801119397</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035232160293569</v>
+        <v>1.041793593036153</v>
       </c>
       <c r="J24">
-        <v>1.041114663218317</v>
+        <v>1.016044298845728</v>
       </c>
       <c r="K24">
-        <v>1.048034372651873</v>
+        <v>1.018362815830987</v>
       </c>
       <c r="L24">
-        <v>1.037466265128805</v>
+        <v>1.011161908736169</v>
       </c>
       <c r="M24">
-        <v>1.055451428849544</v>
+        <v>1.023070209955504</v>
       </c>
       <c r="N24">
-        <v>1.042593165457608</v>
+        <v>1.017487198291999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036684757245246</v>
+        <v>0.9970614891059019</v>
       </c>
       <c r="D25">
-        <v>1.046362265118693</v>
+        <v>1.012393022809301</v>
       </c>
       <c r="E25">
-        <v>1.035592421792085</v>
+        <v>1.004251696167659</v>
       </c>
       <c r="F25">
-        <v>1.053936436337893</v>
+        <v>1.017778506832397</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035508979348876</v>
+        <v>1.043834769651368</v>
       </c>
       <c r="J25">
-        <v>1.042272240948187</v>
+        <v>1.021688152167737</v>
       </c>
       <c r="K25">
-        <v>1.049381966031859</v>
+        <v>1.024801951737991</v>
       </c>
       <c r="L25">
-        <v>1.038645603577923</v>
+        <v>1.016784366635905</v>
       </c>
       <c r="M25">
-        <v>1.056933037961632</v>
+        <v>1.030106963818155</v>
       </c>
       <c r="N25">
-        <v>1.04375238708063</v>
+        <v>1.023139066533085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003937938948062</v>
+        <v>1.009672151266095</v>
       </c>
       <c r="D2">
-        <v>1.018524485896724</v>
+        <v>1.020613536147695</v>
       </c>
       <c r="E2">
-        <v>1.009765507721824</v>
+        <v>1.022943409137213</v>
       </c>
       <c r="F2">
-        <v>1.024366880682917</v>
+        <v>1.03021642217159</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045357393869181</v>
+        <v>1.046010610184441</v>
       </c>
       <c r="J2">
-        <v>1.026001501524234</v>
+        <v>1.03156736895374</v>
       </c>
       <c r="K2">
-        <v>1.029731639427581</v>
+        <v>1.031792971369629</v>
       </c>
       <c r="L2">
-        <v>1.021090449565373</v>
+        <v>1.034092098161581</v>
       </c>
       <c r="M2">
-        <v>1.035496871111986</v>
+        <v>1.041270252375831</v>
       </c>
       <c r="N2">
-        <v>1.027458541340418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013934471259388</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04123502661304</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033550589494863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00877830782846</v>
+        <v>1.013998301278019</v>
       </c>
       <c r="D3">
-        <v>1.022852139548106</v>
+        <v>1.023835351182135</v>
       </c>
       <c r="E3">
-        <v>1.013660511289634</v>
+        <v>1.026386077503474</v>
       </c>
       <c r="F3">
-        <v>1.029016822748006</v>
+        <v>1.033523933175655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046405086217353</v>
+        <v>1.04677437861739</v>
       </c>
       <c r="J3">
-        <v>1.029032494634008</v>
+        <v>1.034114498645802</v>
       </c>
       <c r="K3">
-        <v>1.033200739733522</v>
+        <v>1.034172073827053</v>
       </c>
       <c r="L3">
-        <v>1.024121536818972</v>
+        <v>1.036692118112685</v>
       </c>
       <c r="M3">
-        <v>1.039291416351853</v>
+        <v>1.043745111151735</v>
       </c>
       <c r="N3">
-        <v>1.030493838808065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014834808638629</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043193706757197</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035230165335392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011844051978342</v>
+        <v>1.016743023483444</v>
       </c>
       <c r="D4">
-        <v>1.025598257718171</v>
+        <v>1.025886028595946</v>
       </c>
       <c r="E4">
-        <v>1.016133527822784</v>
+        <v>1.028576388378337</v>
       </c>
       <c r="F4">
-        <v>1.031967395549913</v>
+        <v>1.035631208904248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047057220813207</v>
+        <v>1.047246842024511</v>
       </c>
       <c r="J4">
-        <v>1.030949562631234</v>
+        <v>1.035727925802063</v>
       </c>
       <c r="K4">
-        <v>1.035397247239616</v>
+        <v>1.03568175666083</v>
       </c>
       <c r="L4">
-        <v>1.026041058150215</v>
+        <v>1.038341733958063</v>
       </c>
       <c r="M4">
-        <v>1.041694723935812</v>
+        <v>1.045317805693897</v>
       </c>
       <c r="N4">
-        <v>1.032413629261738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015404626547179</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044438383349873</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036298555642712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013117615466043</v>
+        <v>1.017890051643062</v>
       </c>
       <c r="D5">
-        <v>1.026740228509227</v>
+        <v>1.026747640344479</v>
       </c>
       <c r="E5">
-        <v>1.017162261955529</v>
+        <v>1.029493487512637</v>
       </c>
       <c r="F5">
-        <v>1.033194381494133</v>
+        <v>1.036513401820086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047325340081084</v>
+        <v>1.047442584190562</v>
       </c>
       <c r="J5">
-        <v>1.031745266557946</v>
+        <v>1.036403770421782</v>
       </c>
       <c r="K5">
-        <v>1.036309502253873</v>
+        <v>1.036316832377486</v>
       </c>
       <c r="L5">
-        <v>1.026838353495659</v>
+        <v>1.039032507431007</v>
       </c>
       <c r="M5">
-        <v>1.042693046329079</v>
+        <v>1.04597617606532</v>
       </c>
       <c r="N5">
-        <v>1.033210463179294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015643814642349</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044959436344178</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036754815222101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013330573383809</v>
+        <v>1.018088965062827</v>
       </c>
       <c r="D6">
-        <v>1.026931250786945</v>
+        <v>1.02690087417748</v>
       </c>
       <c r="E6">
-        <v>1.017334361847927</v>
+        <v>1.029653011975536</v>
       </c>
       <c r="F6">
-        <v>1.033399624362536</v>
+        <v>1.036665868040875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047370008242534</v>
+        <v>1.047477889705715</v>
       </c>
       <c r="J6">
-        <v>1.03187827852506</v>
+        <v>1.036523665596258</v>
       </c>
       <c r="K6">
-        <v>1.036462030617464</v>
+        <v>1.03643198732336</v>
       </c>
       <c r="L6">
-        <v>1.026971665155712</v>
+        <v>1.039154024549304</v>
       </c>
       <c r="M6">
-        <v>1.042859975662257</v>
+        <v>1.046091065244005</v>
       </c>
       <c r="N6">
-        <v>1.033343664038658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0156869933992</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045050362862363</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036845022255894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011861128650759</v>
+        <v>1.016777498222681</v>
       </c>
       <c r="D7">
-        <v>1.025613565289107</v>
+        <v>1.025921912555974</v>
       </c>
       <c r="E7">
-        <v>1.01614731621377</v>
+        <v>1.028605043717934</v>
       </c>
       <c r="F7">
-        <v>1.031983842728816</v>
+        <v>1.035655986036412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047060826985657</v>
+        <v>1.047256901484133</v>
       </c>
       <c r="J7">
-        <v>1.030960234621971</v>
+        <v>1.035755619938206</v>
       </c>
       <c r="K7">
-        <v>1.035409480171834</v>
+        <v>1.035714334160718</v>
       </c>
       <c r="L7">
-        <v>1.026051749221236</v>
+        <v>1.038367176927151</v>
       </c>
       <c r="M7">
-        <v>1.041708110283813</v>
+        <v>1.045339444987975</v>
       </c>
       <c r="N7">
-        <v>1.032424316407925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015416489124133</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044455509307155</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036341795990443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005587861187697</v>
+        <v>1.011170224807464</v>
       </c>
       <c r="D8">
-        <v>1.019998542000344</v>
+        <v>1.021740332004162</v>
       </c>
       <c r="E8">
-        <v>1.011091888636627</v>
+        <v>1.024135769233522</v>
       </c>
       <c r="F8">
-        <v>1.025950727381951</v>
+        <v>1.031357800049689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045716891571172</v>
+        <v>1.046282820417964</v>
       </c>
       <c r="J8">
-        <v>1.027035203920425</v>
+        <v>1.03245929105017</v>
       </c>
       <c r="K8">
-        <v>1.03091426642909</v>
+        <v>1.032633654006183</v>
       </c>
       <c r="L8">
-        <v>1.022123680488593</v>
+        <v>1.034998437285385</v>
       </c>
       <c r="M8">
-        <v>1.036790288794535</v>
+        <v>1.042129123934744</v>
       </c>
       <c r="N8">
-        <v>1.028493711712577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014252569949662</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041914764854624</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034168081726202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9939972821606918</v>
+        <v>1.000819499887987</v>
       </c>
       <c r="D9">
-        <v>1.009666941677852</v>
+        <v>1.014059476953926</v>
       </c>
       <c r="E9">
-        <v>1.001801961596851</v>
+        <v>1.015934445828008</v>
       </c>
       <c r="F9">
-        <v>1.014849133286636</v>
+        <v>1.023498674419016</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043144625503952</v>
+        <v>1.044383737966307</v>
       </c>
       <c r="J9">
-        <v>1.019763807249106</v>
+        <v>1.026343352653932</v>
       </c>
       <c r="K9">
-        <v>1.022605102610969</v>
+        <v>1.026928494192871</v>
       </c>
       <c r="L9">
-        <v>1.01486587072834</v>
+        <v>1.02877418159268</v>
       </c>
       <c r="M9">
-        <v>1.027705801563481</v>
+        <v>1.036221668976688</v>
       </c>
       <c r="N9">
-        <v>1.021211988823944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012085915843474</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037239404320642</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030130883090175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9858669603340996</v>
+        <v>0.9937030184095809</v>
       </c>
       <c r="D10">
-        <v>1.002451817931879</v>
+        <v>1.008832377862799</v>
       </c>
       <c r="E10">
-        <v>0.9953233423370829</v>
+        <v>1.010377291246664</v>
       </c>
       <c r="F10">
-        <v>1.00709539057352</v>
+        <v>1.018238064130272</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041282764031812</v>
+        <v>1.043038653512295</v>
       </c>
       <c r="J10">
-        <v>1.014652756013033</v>
+        <v>1.022168719243904</v>
       </c>
       <c r="K10">
-        <v>1.016776944708091</v>
+        <v>1.023043971388097</v>
       </c>
       <c r="L10">
-        <v>1.00977755180752</v>
+        <v>1.024561674647952</v>
       </c>
       <c r="M10">
-        <v>1.021337706505808</v>
+        <v>1.032285651713752</v>
       </c>
       <c r="N10">
-        <v>1.016093679308869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010615195538561</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034175997871473</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027401198600198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9822403555602053</v>
+        <v>0.9914058360596085</v>
       </c>
       <c r="D11">
-        <v>0.9992417982509524</v>
+        <v>1.007260647936999</v>
       </c>
       <c r="E11">
-        <v>0.9924433583920458</v>
+        <v>1.008953032963243</v>
       </c>
       <c r="F11">
-        <v>1.003645430665519</v>
+        <v>1.017286131942312</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040439290299231</v>
+        <v>1.042754576015367</v>
       </c>
       <c r="J11">
-        <v>1.012371085881962</v>
+        <v>1.021140564965372</v>
       </c>
       <c r="K11">
-        <v>1.014178027325071</v>
+        <v>1.022046925839594</v>
       </c>
       <c r="L11">
-        <v>1.007509202922365</v>
+        <v>1.023708060469455</v>
       </c>
       <c r="M11">
-        <v>1.018498925401017</v>
+        <v>1.031889257472695</v>
       </c>
       <c r="N11">
-        <v>1.013808768944501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010336870325992</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034300616828936</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026729435087496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9808763612573338</v>
+        <v>0.9908661466684956</v>
       </c>
       <c r="D12">
-        <v>0.9980358072624903</v>
+        <v>1.006940085135414</v>
       </c>
       <c r="E12">
-        <v>0.9913617352593316</v>
+        <v>1.008803188193931</v>
       </c>
       <c r="F12">
-        <v>1.002349240249899</v>
+        <v>1.017431264039532</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040120164043325</v>
+        <v>1.042770081742846</v>
       </c>
       <c r="J12">
-        <v>1.011512713581968</v>
+        <v>1.021062161895451</v>
       </c>
       <c r="K12">
-        <v>1.01320073510221</v>
+        <v>1.021935521053816</v>
       </c>
       <c r="L12">
-        <v>1.00665632337203</v>
+        <v>1.023763654303636</v>
       </c>
       <c r="M12">
-        <v>1.017431570500377</v>
+        <v>1.032231958565678</v>
       </c>
       <c r="N12">
-        <v>1.012949177657385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010376715286607</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03489939760727</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026650666642795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9811697243317604</v>
+        <v>0.9916684101330895</v>
       </c>
       <c r="D13">
-        <v>0.998295126672843</v>
+        <v>1.007589726625631</v>
       </c>
       <c r="E13">
-        <v>0.991594295085131</v>
+        <v>1.009646478365587</v>
       </c>
       <c r="F13">
-        <v>1.002627957504721</v>
+        <v>1.018459414975897</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040188884947016</v>
+        <v>1.043031184379101</v>
       </c>
       <c r="J13">
-        <v>1.011697338166609</v>
+        <v>1.021735683916367</v>
       </c>
       <c r="K13">
-        <v>1.013410918444396</v>
+        <v>1.022529399296963</v>
       </c>
       <c r="L13">
-        <v>1.006839744720034</v>
+        <v>1.024547750239025</v>
       </c>
       <c r="M13">
-        <v>1.017661117262117</v>
+        <v>1.033198429162132</v>
       </c>
       <c r="N13">
-        <v>1.013134064430113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010675870014973</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035941116634962</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027068046863903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9821279582254875</v>
+        <v>0.9928367992514663</v>
       </c>
       <c r="D14">
-        <v>0.9991423936007016</v>
+        <v>1.008485083872485</v>
       </c>
       <c r="E14">
-        <v>0.9923541971129918</v>
+        <v>1.010683764567316</v>
       </c>
       <c r="F14">
-        <v>1.003538592431374</v>
+        <v>1.019575670972413</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040413031347006</v>
+        <v>1.043324680043366</v>
       </c>
       <c r="J14">
-        <v>1.01230035745215</v>
+        <v>1.022546726932184</v>
       </c>
       <c r="K14">
-        <v>1.014097491384644</v>
+        <v>1.023265499881734</v>
       </c>
       <c r="L14">
-        <v>1.007438917279446</v>
+        <v>1.025423682982829</v>
       </c>
       <c r="M14">
-        <v>1.018410964902689</v>
+        <v>1.034154123581852</v>
       </c>
       <c r="N14">
-        <v>1.013737940072206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011002539660194</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036870310989755</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027589944542245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9827160865472355</v>
+        <v>0.9934228578678307</v>
       </c>
       <c r="D15">
-        <v>0.9996625909271403</v>
+        <v>1.00892554400565</v>
       </c>
       <c r="E15">
-        <v>0.9928208049590346</v>
+        <v>1.01116604846729</v>
       </c>
       <c r="F15">
-        <v>1.004097688369012</v>
+        <v>1.020060409919936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04055035686169</v>
+        <v>1.043453438565911</v>
       </c>
       <c r="J15">
-        <v>1.012670441246203</v>
+        <v>1.022919074474089</v>
       </c>
       <c r="K15">
-        <v>1.01451891008499</v>
+        <v>1.02361007450471</v>
       </c>
       <c r="L15">
-        <v>1.007806703844375</v>
+        <v>1.025809642255455</v>
       </c>
       <c r="M15">
-        <v>1.018871239434259</v>
+        <v>1.034543795635102</v>
       </c>
       <c r="N15">
-        <v>1.014108549427696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011143086300413</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037215917962015</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027839505762245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9861053293234924</v>
+        <v>0.9962811188487789</v>
       </c>
       <c r="D16">
-        <v>1.002662985173846</v>
+        <v>1.011011474881715</v>
       </c>
       <c r="E16">
-        <v>0.9955128494798015</v>
+        <v>1.01335878681989</v>
       </c>
       <c r="F16">
-        <v>1.007322334855913</v>
+        <v>1.022121417452655</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041337938655027</v>
+        <v>1.043986605715289</v>
       </c>
       <c r="J16">
-        <v>1.014802691850328</v>
+        <v>1.024565805766616</v>
       </c>
       <c r="K16">
-        <v>1.016947787579551</v>
+        <v>1.025148617461982</v>
       </c>
       <c r="L16">
-        <v>1.009926678678408</v>
+        <v>1.027454979732846</v>
       </c>
       <c r="M16">
-        <v>1.021524335900553</v>
+        <v>1.036066888761605</v>
       </c>
       <c r="N16">
-        <v>1.016243828072252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011711097707338</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038380979866607</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028930522944842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9882022394132247</v>
+        <v>0.9978646011736313</v>
       </c>
       <c r="D17">
-        <v>1.004521561659832</v>
+        <v>1.012146727141128</v>
       </c>
       <c r="E17">
-        <v>0.9971810572977337</v>
+        <v>1.014500265734298</v>
       </c>
       <c r="F17">
-        <v>1.009319736000342</v>
+        <v>1.023114584905066</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041821836422093</v>
+        <v>1.04423969431663</v>
       </c>
       <c r="J17">
-        <v>1.016121461254668</v>
+        <v>1.025405087659629</v>
       </c>
       <c r="K17">
-        <v>1.018450773284221</v>
+        <v>1.025945080211905</v>
       </c>
       <c r="L17">
-        <v>1.011238693983092</v>
+        <v>1.028258741349824</v>
       </c>
       <c r="M17">
-        <v>1.023166306197724</v>
+        <v>1.036729116567971</v>
       </c>
       <c r="N17">
-        <v>1.01756447028041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011975955679047</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038775163208301</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029496270024367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9894151615941806</v>
+        <v>0.9984743330192267</v>
       </c>
       <c r="D18">
-        <v>1.005597410863645</v>
+        <v>1.012538403634899</v>
       </c>
       <c r="E18">
-        <v>0.9981469333960248</v>
+        <v>1.014800860007748</v>
       </c>
       <c r="F18">
-        <v>1.010475916136403</v>
+        <v>1.02321517732216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042100505145564</v>
+        <v>1.044266157548583</v>
       </c>
       <c r="J18">
-        <v>1.016884102871565</v>
+        <v>1.025595102379591</v>
       </c>
       <c r="K18">
-        <v>1.01932022015257</v>
+        <v>1.026144161647311</v>
       </c>
       <c r="L18">
-        <v>1.01199773002971</v>
+        <v>1.02836891009234</v>
       </c>
       <c r="M18">
-        <v>1.024116238937274</v>
+        <v>1.036644867533068</v>
       </c>
       <c r="N18">
-        <v>1.018328194935879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011990624447579</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038470393981118</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029625287209686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9898270399043175</v>
+        <v>0.9982410326954829</v>
       </c>
       <c r="D19">
-        <v>1.005962874150854</v>
+        <v>1.012302321047306</v>
       </c>
       <c r="E19">
-        <v>0.9984750763598406</v>
+        <v>1.014367801580032</v>
       </c>
       <c r="F19">
-        <v>1.010868663034807</v>
+        <v>1.022521915596589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042194923117961</v>
+        <v>1.044106580039716</v>
       </c>
       <c r="J19">
-        <v>1.017143045153941</v>
+        <v>1.02523563986835</v>
       </c>
       <c r="K19">
-        <v>1.0196154728558</v>
+        <v>1.025848603222735</v>
       </c>
       <c r="L19">
-        <v>1.012255498915027</v>
+        <v>1.027879813781345</v>
       </c>
       <c r="M19">
-        <v>1.02443883821926</v>
+        <v>1.035900373034557</v>
       </c>
       <c r="N19">
-        <v>1.018587504945997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011800730821159</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037555369333496</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029422768771722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9879783194967429</v>
+        <v>0.9956063834470302</v>
       </c>
       <c r="D20">
-        <v>1.004323010213875</v>
+        <v>1.010253880515334</v>
       </c>
       <c r="E20">
-        <v>0.9970028196326001</v>
+        <v>1.011866998206565</v>
       </c>
       <c r="F20">
-        <v>1.009106356967594</v>
+        <v>1.019642550549433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041770290689286</v>
+        <v>1.04341437337285</v>
       </c>
       <c r="J20">
-        <v>1.015980653694899</v>
+        <v>1.023307728604604</v>
       </c>
       <c r="K20">
-        <v>1.018290268251884</v>
+        <v>1.024118792637875</v>
       </c>
       <c r="L20">
-        <v>1.011098576375416</v>
+        <v>1.025704341662114</v>
       </c>
       <c r="M20">
-        <v>1.022990949965439</v>
+        <v>1.033348584340889</v>
       </c>
       <c r="N20">
-        <v>1.017423462757755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011023396647104</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035006597613629</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028203673391268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9818462572287535</v>
+        <v>0.9900841926224756</v>
       </c>
       <c r="D21">
-        <v>0.9988932776531652</v>
+        <v>1.006188203762329</v>
       </c>
       <c r="E21">
-        <v>0.992130757974195</v>
+        <v>1.007499058201434</v>
       </c>
       <c r="F21">
-        <v>1.003270846417937</v>
+        <v>1.015436499281463</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040347188420357</v>
+        <v>1.042319022549242</v>
       </c>
       <c r="J21">
-        <v>1.012123087752546</v>
+        <v>1.02000242041734</v>
       </c>
       <c r="K21">
-        <v>1.013895647607266</v>
+        <v>1.021053279535327</v>
       </c>
       <c r="L21">
-        <v>1.007262765122368</v>
+        <v>1.022339737895953</v>
       </c>
       <c r="M21">
-        <v>1.018190515448715</v>
+        <v>1.030131207406574</v>
       </c>
       <c r="N21">
-        <v>1.013560418629295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009842655047304</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032419173999933</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026039477157302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9778924041784838</v>
+        <v>0.9865622676072814</v>
       </c>
       <c r="D22">
-        <v>0.9954000186056179</v>
+        <v>1.003599926684372</v>
       </c>
       <c r="E22">
-        <v>0.9889984741783432</v>
+        <v>1.004742684585369</v>
       </c>
       <c r="F22">
-        <v>0.9995162028108956</v>
+        <v>1.012813945138124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039418617339213</v>
+        <v>1.041613638358347</v>
       </c>
       <c r="J22">
-        <v>1.009634550913499</v>
+        <v>1.017903800223977</v>
       </c>
       <c r="K22">
-        <v>1.011063156141033</v>
+        <v>1.019100404070316</v>
       </c>
       <c r="L22">
-        <v>1.004791069908571</v>
+        <v>1.020220769837679</v>
       </c>
       <c r="M22">
-        <v>1.015097249914338</v>
+        <v>1.028135758702217</v>
       </c>
       <c r="N22">
-        <v>1.011068347782498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009094567540084</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03083989038655</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024645016383342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9799980852924695</v>
+        <v>0.9884169015409361</v>
       </c>
       <c r="D23">
-        <v>0.997259651086979</v>
+        <v>1.004952693758038</v>
       </c>
       <c r="E23">
-        <v>0.99066572837911</v>
+        <v>1.006191761702473</v>
       </c>
       <c r="F23">
-        <v>1.001515016610089</v>
+        <v>1.01419508725302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039914153989477</v>
+        <v>1.041982322888909</v>
       </c>
       <c r="J23">
-        <v>1.010959953598986</v>
+        <v>1.019001790577412</v>
       </c>
       <c r="K23">
-        <v>1.012571515731711</v>
+        <v>1.020116118221998</v>
       </c>
       <c r="L23">
-        <v>1.006107236744381</v>
+        <v>1.021331555479473</v>
       </c>
       <c r="M23">
-        <v>1.016744403201709</v>
+        <v>1.029184061893557</v>
       </c>
       <c r="N23">
-        <v>1.012395632691824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009483625835421</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031669562899604</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025353428937381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.988079530625835</v>
+        <v>0.9955855598734284</v>
       </c>
       <c r="D24">
-        <v>1.004412752434807</v>
+        <v>1.010214853320065</v>
       </c>
       <c r="E24">
-        <v>0.9970833796448542</v>
+        <v>1.011813632279936</v>
       </c>
       <c r="F24">
-        <v>1.009202801119397</v>
+        <v>1.019556343840731</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041793593036153</v>
+        <v>1.043389642366442</v>
       </c>
       <c r="J24">
-        <v>1.016044298845728</v>
+        <v>1.02325460543901</v>
       </c>
       <c r="K24">
-        <v>1.018362815830987</v>
+        <v>1.024064928308226</v>
       </c>
       <c r="L24">
-        <v>1.011161908736169</v>
+        <v>1.025636415551508</v>
       </c>
       <c r="M24">
-        <v>1.023070209955504</v>
+        <v>1.033248516749</v>
       </c>
       <c r="N24">
-        <v>1.017487198291999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010993777952667</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034886339070677</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028137898014919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9970614891059019</v>
+        <v>1.003582764715753</v>
       </c>
       <c r="D25">
-        <v>1.012393022809301</v>
+        <v>1.016119266974313</v>
       </c>
       <c r="E25">
-        <v>1.004251696167659</v>
+        <v>1.018119843159729</v>
       </c>
       <c r="F25">
-        <v>1.017778506832397</v>
+        <v>1.025585466788016</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043834769651368</v>
+        <v>1.044908108975542</v>
       </c>
       <c r="J25">
-        <v>1.021688152167737</v>
+        <v>1.027990153209589</v>
       </c>
       <c r="K25">
-        <v>1.024801951737991</v>
+        <v>1.028472401323542</v>
       </c>
       <c r="L25">
-        <v>1.016784366635905</v>
+        <v>1.030443236234388</v>
       </c>
       <c r="M25">
-        <v>1.030106963818155</v>
+        <v>1.037799172681976</v>
       </c>
       <c r="N25">
-        <v>1.023139066533085</v>
+        <v>1.012673395943713</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038487897323664</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031251369293702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009672151266095</v>
+        <v>1.009876908165705</v>
       </c>
       <c r="D2">
-        <v>1.020613536147695</v>
+        <v>1.020433687475729</v>
       </c>
       <c r="E2">
-        <v>1.022943409137213</v>
+        <v>1.023150953305301</v>
       </c>
       <c r="F2">
-        <v>1.03021642217159</v>
+        <v>1.03037354099043</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046010610184441</v>
+        <v>1.04613478201127</v>
       </c>
       <c r="J2">
-        <v>1.03156736895374</v>
+        <v>1.031766163079882</v>
       </c>
       <c r="K2">
-        <v>1.031792971369629</v>
+        <v>1.031615503396244</v>
       </c>
       <c r="L2">
-        <v>1.034092098161581</v>
+        <v>1.034296911986187</v>
       </c>
       <c r="M2">
-        <v>1.041270252375831</v>
+        <v>1.04142534045088</v>
       </c>
       <c r="N2">
-        <v>1.013934471259388</v>
+        <v>1.015307698743258</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04123502661304</v>
+        <v>1.041357768290673</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033550589494863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03343393502984</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020274331732635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013998301278019</v>
+        <v>1.013897010785674</v>
       </c>
       <c r="D3">
-        <v>1.023835351182135</v>
+        <v>1.023265090752502</v>
       </c>
       <c r="E3">
-        <v>1.026386077503474</v>
+        <v>1.026340907477917</v>
       </c>
       <c r="F3">
-        <v>1.033523933175655</v>
+        <v>1.033478784631489</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04677437861739</v>
+        <v>1.046793526198879</v>
       </c>
       <c r="J3">
-        <v>1.034114498645802</v>
+        <v>1.034015867415873</v>
       </c>
       <c r="K3">
-        <v>1.034172073827053</v>
+        <v>1.033608698890953</v>
       </c>
       <c r="L3">
-        <v>1.036692118112685</v>
+        <v>1.036647489780198</v>
       </c>
       <c r="M3">
-        <v>1.043745111151735</v>
+        <v>1.043700494821012</v>
       </c>
       <c r="N3">
-        <v>1.014834808638629</v>
+        <v>1.015934864419661</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043193706757197</v>
+        <v>1.043158396053327</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035230165335392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034840354139006</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020729387290613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016743023483444</v>
+        <v>1.016450424162997</v>
       </c>
       <c r="D4">
-        <v>1.025886028595946</v>
+        <v>1.02506992202102</v>
       </c>
       <c r="E4">
-        <v>1.028576388378337</v>
+        <v>1.028373133122492</v>
       </c>
       <c r="F4">
-        <v>1.035631208904248</v>
+        <v>1.035459618091626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047246842024511</v>
+        <v>1.047200180946424</v>
       </c>
       <c r="J4">
-        <v>1.035727925802063</v>
+        <v>1.035442486090524</v>
       </c>
       <c r="K4">
-        <v>1.03568175666083</v>
+        <v>1.034874905322585</v>
       </c>
       <c r="L4">
-        <v>1.038341733958063</v>
+        <v>1.03814076724413</v>
       </c>
       <c r="M4">
-        <v>1.045317805693897</v>
+        <v>1.04514811459152</v>
       </c>
       <c r="N4">
-        <v>1.015404626547179</v>
+        <v>1.016332395758391</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044438383349873</v>
+        <v>1.044304084936027</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036298555642712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03573666212659</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021015934281732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017890051643062</v>
+        <v>1.017517851762158</v>
       </c>
       <c r="D5">
-        <v>1.026747640344479</v>
+        <v>1.025828975006332</v>
       </c>
       <c r="E5">
-        <v>1.029493487512637</v>
+        <v>1.029224410451987</v>
       </c>
       <c r="F5">
-        <v>1.036513401820086</v>
+        <v>1.03628918786567</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047442584190562</v>
+        <v>1.047368475161856</v>
       </c>
       <c r="J5">
-        <v>1.036403770421782</v>
+        <v>1.036040404533898</v>
       </c>
       <c r="K5">
-        <v>1.036316832377486</v>
+        <v>1.035408305906929</v>
       </c>
       <c r="L5">
-        <v>1.039032507431007</v>
+        <v>1.038766378323724</v>
       </c>
       <c r="M5">
-        <v>1.04597617606532</v>
+        <v>1.045754377796761</v>
       </c>
       <c r="N5">
-        <v>1.015643814642349</v>
+        <v>1.016499408737801</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044959436344178</v>
+        <v>1.044783898941974</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036754815222101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036121739333404</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021136782549706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018088965062827</v>
+        <v>1.01770262468997</v>
       </c>
       <c r="D6">
-        <v>1.02690087417748</v>
+        <v>1.025964149238428</v>
       </c>
       <c r="E6">
-        <v>1.029653011975536</v>
+        <v>1.02937221134044</v>
       </c>
       <c r="F6">
-        <v>1.036665868040875</v>
+        <v>1.036432288120136</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047477889705715</v>
+        <v>1.047398862038615</v>
       </c>
       <c r="J6">
-        <v>1.036523665596258</v>
+        <v>1.036146447394812</v>
       </c>
       <c r="K6">
-        <v>1.03643198732336</v>
+        <v>1.035505552749024</v>
       </c>
       <c r="L6">
-        <v>1.039154024549304</v>
+        <v>1.038876286024864</v>
       </c>
       <c r="M6">
-        <v>1.046091065244005</v>
+        <v>1.045859990296356</v>
       </c>
       <c r="N6">
-        <v>1.0156869933992</v>
+        <v>1.016529569200353</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045050362862363</v>
+        <v>1.044867483656605</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036845022255894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036200154590046</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02115969340016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016777498222681</v>
+        <v>1.016491073226805</v>
       </c>
       <c r="D7">
-        <v>1.025921912555974</v>
+        <v>1.025109716181559</v>
       </c>
       <c r="E7">
-        <v>1.028605043717934</v>
+        <v>1.028407124745346</v>
       </c>
       <c r="F7">
-        <v>1.035655986036412</v>
+        <v>1.035488606738752</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047256901484133</v>
+        <v>1.047212716428317</v>
       </c>
       <c r="J7">
-        <v>1.035755619938206</v>
+        <v>1.035476200221445</v>
       </c>
       <c r="K7">
-        <v>1.035714334160718</v>
+        <v>1.034911344765879</v>
       </c>
       <c r="L7">
-        <v>1.038367176927151</v>
+        <v>1.038171485502386</v>
       </c>
       <c r="M7">
-        <v>1.045339444987975</v>
+        <v>1.045173918038968</v>
       </c>
       <c r="N7">
-        <v>1.015416489124133</v>
+        <v>1.016369595761861</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044455509307155</v>
+        <v>1.044324506527291</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036341795990443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035784636273439</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021027630259183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011170224807464</v>
+        <v>1.01129675979544</v>
       </c>
       <c r="D8">
-        <v>1.021740332004162</v>
+        <v>1.021448079378885</v>
       </c>
       <c r="E8">
-        <v>1.024135769233522</v>
+        <v>1.024279731919705</v>
       </c>
       <c r="F8">
-        <v>1.031357800049689</v>
+        <v>1.03146377562291</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046282820417964</v>
+        <v>1.046381611586393</v>
       </c>
       <c r="J8">
-        <v>1.03245929105017</v>
+        <v>1.032582266066731</v>
       </c>
       <c r="K8">
-        <v>1.032633654006183</v>
+        <v>1.03234515358485</v>
       </c>
       <c r="L8">
-        <v>1.034998437285385</v>
+        <v>1.03514056341491</v>
       </c>
       <c r="M8">
-        <v>1.042129123934744</v>
+        <v>1.042233771004285</v>
       </c>
       <c r="N8">
-        <v>1.014252569949662</v>
+        <v>1.015617344513417</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041914764854624</v>
+        <v>1.041997585826909</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034168081726202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033975181024636</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020447657221514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000819499887987</v>
+        <v>1.001702418131609</v>
       </c>
       <c r="D9">
-        <v>1.014059476953926</v>
+        <v>1.014717925901327</v>
       </c>
       <c r="E9">
-        <v>1.015934445828008</v>
+        <v>1.016702379402382</v>
       </c>
       <c r="F9">
-        <v>1.023498674419016</v>
+        <v>1.024104577109489</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044383737966307</v>
+        <v>1.044741439037418</v>
       </c>
       <c r="J9">
-        <v>1.026343352653932</v>
+        <v>1.02719520252421</v>
       </c>
       <c r="K9">
-        <v>1.026928494192871</v>
+        <v>1.027576644349327</v>
       </c>
       <c r="L9">
-        <v>1.02877418159268</v>
+        <v>1.029530162154829</v>
       </c>
       <c r="M9">
-        <v>1.036221668976688</v>
+        <v>1.036818315712911</v>
       </c>
       <c r="N9">
-        <v>1.012085915843474</v>
+        <v>1.014123027501474</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037239404320642</v>
+        <v>1.037711612200746</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030130883090175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030600013112025</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019342688667317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9937030184095809</v>
+        <v>0.9951626694236406</v>
       </c>
       <c r="D10">
-        <v>1.008832377862799</v>
+        <v>1.010186563410917</v>
       </c>
       <c r="E10">
-        <v>1.010377291246664</v>
+        <v>1.011620712451332</v>
       </c>
       <c r="F10">
-        <v>1.018238064130272</v>
+        <v>1.019225211598411</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043038653512295</v>
+        <v>1.043594137622692</v>
       </c>
       <c r="J10">
-        <v>1.022168719243904</v>
+        <v>1.023569534251676</v>
       </c>
       <c r="K10">
-        <v>1.023043971388097</v>
+        <v>1.024374300211023</v>
       </c>
       <c r="L10">
-        <v>1.024561674647952</v>
+        <v>1.025783274032608</v>
       </c>
       <c r="M10">
-        <v>1.032285651713752</v>
+        <v>1.033255813294006</v>
       </c>
       <c r="N10">
-        <v>1.010615195538561</v>
+        <v>1.01323712538838</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034175997871473</v>
+        <v>1.034943773787201</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027401198600198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028354371747052</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018600477802984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9914058360596085</v>
+        <v>0.9930742375788877</v>
       </c>
       <c r="D11">
-        <v>1.007260647936999</v>
+        <v>1.008849986027699</v>
       </c>
       <c r="E11">
-        <v>1.008953032963243</v>
+        <v>1.010363937444008</v>
       </c>
       <c r="F11">
-        <v>1.017286131942312</v>
+        <v>1.018407548632633</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042754576015367</v>
+        <v>1.043378004545032</v>
       </c>
       <c r="J11">
-        <v>1.021140564965372</v>
+        <v>1.022738001913287</v>
       </c>
       <c r="K11">
-        <v>1.022046925839594</v>
+        <v>1.023606912420093</v>
       </c>
       <c r="L11">
-        <v>1.023708060469455</v>
+        <v>1.025093016406184</v>
       </c>
       <c r="M11">
-        <v>1.031889257472695</v>
+        <v>1.03299047874681</v>
       </c>
       <c r="N11">
-        <v>1.010336870325992</v>
+        <v>1.013296847989671</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034300616828936</v>
+        <v>1.035171669891117</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026729435087496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027848184381175</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018489549970292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9908661466684956</v>
+        <v>0.9925706704450044</v>
       </c>
       <c r="D12">
-        <v>1.006940085135414</v>
+        <v>1.008570110837309</v>
       </c>
       <c r="E12">
-        <v>1.008803188193931</v>
+        <v>1.010238781870116</v>
       </c>
       <c r="F12">
-        <v>1.017431264039532</v>
+        <v>1.018572884117081</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042770081742846</v>
+        <v>1.043401065083236</v>
       </c>
       <c r="J12">
-        <v>1.021062161895451</v>
+        <v>1.022692815246013</v>
       </c>
       <c r="K12">
-        <v>1.021935521053816</v>
+        <v>1.023534942498386</v>
       </c>
       <c r="L12">
-        <v>1.023763654303636</v>
+        <v>1.025172417190811</v>
       </c>
       <c r="M12">
-        <v>1.032231958565678</v>
+        <v>1.033352702484358</v>
       </c>
       <c r="N12">
-        <v>1.010376715286607</v>
+        <v>1.013432787649247</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03489939760727</v>
+        <v>1.035785590575513</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026650666642795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027797299481518</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018521763388317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9916684101330895</v>
+        <v>0.9932603965339202</v>
       </c>
       <c r="D13">
-        <v>1.007589726625631</v>
+        <v>1.009097930318715</v>
       </c>
       <c r="E13">
-        <v>1.009646478365587</v>
+        <v>1.010983432618109</v>
       </c>
       <c r="F13">
-        <v>1.018459414975897</v>
+        <v>1.019522939584043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043031184379101</v>
+        <v>1.043616906873372</v>
       </c>
       <c r="J13">
-        <v>1.021735683916367</v>
+        <v>1.023259077379551</v>
       </c>
       <c r="K13">
-        <v>1.022529399296963</v>
+        <v>1.024009423941303</v>
       </c>
       <c r="L13">
-        <v>1.024547750239025</v>
+        <v>1.025859852025873</v>
       </c>
       <c r="M13">
-        <v>1.033198429162132</v>
+        <v>1.034242619650453</v>
       </c>
       <c r="N13">
-        <v>1.010675870014973</v>
+        <v>1.013606522028443</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035941116634962</v>
+        <v>1.036766568882937</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027068046863903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028130011967026</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018672553120931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9928367992514663</v>
+        <v>0.9942839730882816</v>
       </c>
       <c r="D14">
-        <v>1.008485083872485</v>
+        <v>1.009835621690659</v>
       </c>
       <c r="E14">
-        <v>1.010683764567316</v>
+        <v>1.011897248707224</v>
       </c>
       <c r="F14">
-        <v>1.019575670972413</v>
+        <v>1.020541146806216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043324680043366</v>
+        <v>1.043855584759442</v>
       </c>
       <c r="J14">
-        <v>1.022546726932184</v>
+        <v>1.023932491092559</v>
       </c>
       <c r="K14">
-        <v>1.023265499881734</v>
+        <v>1.024591134864032</v>
       </c>
       <c r="L14">
-        <v>1.025423682982829</v>
+        <v>1.026614914048894</v>
       </c>
       <c r="M14">
-        <v>1.034154123581852</v>
+        <v>1.035102287539392</v>
       </c>
       <c r="N14">
-        <v>1.011002539660194</v>
+        <v>1.01374682879915</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036870310989755</v>
+        <v>1.037619751091944</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027589944542245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028542876571043</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018832826901229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9934228578678307</v>
+        <v>0.9948027446364407</v>
       </c>
       <c r="D15">
-        <v>1.00892554400565</v>
+        <v>1.01020220074512</v>
       </c>
       <c r="E15">
-        <v>1.01116604846729</v>
+        <v>1.01232305847763</v>
       </c>
       <c r="F15">
-        <v>1.020060409919936</v>
+        <v>1.020980916309388</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043453438565911</v>
+        <v>1.043959814635694</v>
       </c>
       <c r="J15">
-        <v>1.022919074474089</v>
+        <v>1.024240937035633</v>
       </c>
       <c r="K15">
-        <v>1.02361007450471</v>
+        <v>1.024863376218075</v>
       </c>
       <c r="L15">
-        <v>1.025809642255455</v>
+        <v>1.026945604603897</v>
       </c>
       <c r="M15">
-        <v>1.034543795635102</v>
+        <v>1.035447928407148</v>
       </c>
       <c r="N15">
-        <v>1.011143086300413</v>
+        <v>1.013795809018313</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037215917962015</v>
+        <v>1.037930536511791</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027839505762245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028741857429125</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018901560236629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9962811188487789</v>
+        <v>0.9973718539361495</v>
       </c>
       <c r="D16">
-        <v>1.011011474881715</v>
+        <v>1.011963068335821</v>
       </c>
       <c r="E16">
-        <v>1.01335878681989</v>
+        <v>1.014277620324874</v>
       </c>
       <c r="F16">
-        <v>1.022121417452655</v>
+        <v>1.022851465707857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043986605715289</v>
+        <v>1.044392722748397</v>
       </c>
       <c r="J16">
-        <v>1.024565805766616</v>
+        <v>1.025613013834148</v>
       </c>
       <c r="K16">
-        <v>1.025148617461982</v>
+        <v>1.02608358038809</v>
       </c>
       <c r="L16">
-        <v>1.027454979732846</v>
+        <v>1.028357850671494</v>
       </c>
       <c r="M16">
-        <v>1.036066888761605</v>
+        <v>1.03678453026945</v>
       </c>
       <c r="N16">
-        <v>1.011711097707338</v>
+        <v>1.0139575696108</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038380979866607</v>
+        <v>1.03894821379561</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028930522944842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029608083317956</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019173530897476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9978646011736313</v>
+        <v>0.9988205423006208</v>
       </c>
       <c r="D17">
-        <v>1.012146727141128</v>
+        <v>1.012940318669781</v>
       </c>
       <c r="E17">
-        <v>1.014500265734298</v>
+        <v>1.015310163711831</v>
       </c>
       <c r="F17">
-        <v>1.023114584905066</v>
+        <v>1.023757117955673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04423969431663</v>
+        <v>1.044601597314595</v>
       </c>
       <c r="J17">
-        <v>1.025405087659629</v>
+        <v>1.026324120903358</v>
       </c>
       <c r="K17">
-        <v>1.025945080211905</v>
+        <v>1.026725198701402</v>
       </c>
       <c r="L17">
-        <v>1.028258741349824</v>
+        <v>1.029054971877006</v>
       </c>
       <c r="M17">
-        <v>1.036729116567971</v>
+        <v>1.037361037908843</v>
       </c>
       <c r="N17">
-        <v>1.011975955679047</v>
+        <v>1.014038635251684</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038775163208301</v>
+        <v>1.039274692662156</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029496270024367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030064590614541</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019300934935907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9984743330192267</v>
+        <v>0.9994033326312232</v>
       </c>
       <c r="D18">
-        <v>1.012538403634899</v>
+        <v>1.013294350714154</v>
       </c>
       <c r="E18">
-        <v>1.014800860007748</v>
+        <v>1.015592368527151</v>
       </c>
       <c r="F18">
-        <v>1.02321517732216</v>
+        <v>1.023842321353191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044266157548583</v>
+        <v>1.044623079695781</v>
       </c>
       <c r="J18">
-        <v>1.025595102379591</v>
+        <v>1.026488900307392</v>
       </c>
       <c r="K18">
-        <v>1.026144161647311</v>
+        <v>1.026887485368475</v>
       </c>
       <c r="L18">
-        <v>1.02836891009234</v>
+        <v>1.02914727776361</v>
       </c>
       <c r="M18">
-        <v>1.036644867533068</v>
+        <v>1.037261816162144</v>
       </c>
       <c r="N18">
-        <v>1.011990624447579</v>
+        <v>1.014007815677645</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038470393981118</v>
+        <v>1.038958189597518</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029625287209686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03016646176425</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019302175645267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9982410326954829</v>
+        <v>0.9992251777002749</v>
       </c>
       <c r="D19">
-        <v>1.012302321047306</v>
+        <v>1.013115817817487</v>
       </c>
       <c r="E19">
-        <v>1.014367801580032</v>
+        <v>1.015209534219884</v>
       </c>
       <c r="F19">
-        <v>1.022521915596589</v>
+        <v>1.023188501959913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044106580039716</v>
+        <v>1.044487798520501</v>
       </c>
       <c r="J19">
-        <v>1.02523563986835</v>
+        <v>1.026182690249793</v>
       </c>
       <c r="K19">
-        <v>1.025848603222735</v>
+        <v>1.026648581166378</v>
       </c>
       <c r="L19">
-        <v>1.027879813781345</v>
+        <v>1.028707632052941</v>
       </c>
       <c r="M19">
-        <v>1.035900373034557</v>
+        <v>1.036556162340295</v>
       </c>
       <c r="N19">
-        <v>1.011800730821159</v>
+        <v>1.013868848192708</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037555369333496</v>
+        <v>1.03807404485408</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029422768771722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030004624335136</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019202786554874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9956063834470302</v>
+        <v>0.9968790149551476</v>
       </c>
       <c r="D20">
-        <v>1.010253880515334</v>
+        <v>1.011395248285344</v>
       </c>
       <c r="E20">
-        <v>1.011866998206565</v>
+        <v>1.012954774807164</v>
       </c>
       <c r="F20">
-        <v>1.019642550549433</v>
+        <v>1.020505229066962</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04341437337285</v>
+        <v>1.04390369084338</v>
       </c>
       <c r="J20">
-        <v>1.023307728604604</v>
+        <v>1.024530777741861</v>
       </c>
       <c r="K20">
-        <v>1.024118792637875</v>
+        <v>1.025240642335923</v>
       </c>
       <c r="L20">
-        <v>1.025704341662114</v>
+        <v>1.026773591835896</v>
       </c>
       <c r="M20">
-        <v>1.033348584340889</v>
+        <v>1.034196853251377</v>
       </c>
       <c r="N20">
-        <v>1.011023396647104</v>
+        <v>1.013407640651799</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035006597613629</v>
+        <v>1.035677916876302</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028203673391268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02901350563921</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018806327089843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9900841926224756</v>
+        <v>0.9919573615798425</v>
       </c>
       <c r="D21">
-        <v>1.006188203762329</v>
+        <v>1.007995480932164</v>
       </c>
       <c r="E21">
-        <v>1.007499058201434</v>
+        <v>1.009089298415727</v>
       </c>
       <c r="F21">
-        <v>1.015436499281463</v>
+        <v>1.016700585640219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042319022549242</v>
+        <v>1.043024186587558</v>
       </c>
       <c r="J21">
-        <v>1.02000242041734</v>
+        <v>1.021795233734575</v>
       </c>
       <c r="K21">
-        <v>1.021053279535327</v>
+        <v>1.022826943394453</v>
       </c>
       <c r="L21">
-        <v>1.022339737895953</v>
+        <v>1.023900493361779</v>
       </c>
       <c r="M21">
-        <v>1.030131207406574</v>
+        <v>1.031372320572271</v>
       </c>
       <c r="N21">
-        <v>1.009842655047304</v>
+        <v>1.013067670155086</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032419173999933</v>
+        <v>1.033401442344181</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026039477157302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027310516417615</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01824619801842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9865622676072814</v>
+        <v>0.9888223385506743</v>
       </c>
       <c r="D22">
-        <v>1.003599926684372</v>
+        <v>1.005834329914835</v>
       </c>
       <c r="E22">
-        <v>1.004742684585369</v>
+        <v>1.006656754663454</v>
       </c>
       <c r="F22">
-        <v>1.012813945138124</v>
+        <v>1.014336750870617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041613638358347</v>
+        <v>1.042458301881314</v>
       </c>
       <c r="J22">
-        <v>1.017903800223977</v>
+        <v>1.020061092590996</v>
       </c>
       <c r="K22">
-        <v>1.019100404070316</v>
+        <v>1.021291086901421</v>
       </c>
       <c r="L22">
-        <v>1.020220769837679</v>
+        <v>1.022097483405944</v>
       </c>
       <c r="M22">
-        <v>1.028135758702217</v>
+        <v>1.029629445485035</v>
       </c>
       <c r="N22">
-        <v>1.009094567540084</v>
+        <v>1.012848031746328</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03083989038655</v>
+        <v>1.032022058450027</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024645016383342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026209637012152</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017889116862744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9884169015409361</v>
+        <v>0.9904571166105749</v>
       </c>
       <c r="D23">
-        <v>1.004952693758038</v>
+        <v>1.006948893397228</v>
       </c>
       <c r="E23">
-        <v>1.006191761702473</v>
+        <v>1.007921189730629</v>
       </c>
       <c r="F23">
-        <v>1.01419508725302</v>
+        <v>1.015570531594208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041982322888909</v>
+        <v>1.042746841126821</v>
       </c>
       <c r="J23">
-        <v>1.019001790577412</v>
+        <v>1.020952027024731</v>
       </c>
       <c r="K23">
-        <v>1.020116118221998</v>
+        <v>1.022074285091108</v>
       </c>
       <c r="L23">
-        <v>1.021331555479473</v>
+        <v>1.023028127988364</v>
       </c>
       <c r="M23">
-        <v>1.029184061893557</v>
+        <v>1.030533898814058</v>
       </c>
       <c r="N23">
-        <v>1.009483625835421</v>
+        <v>1.012913918105831</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031669562899604</v>
+        <v>1.032737880803024</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025353428937381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026752708346984</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018066762007662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9955855598734284</v>
+        <v>0.9968654490084552</v>
       </c>
       <c r="D24">
-        <v>1.010214853320065</v>
+        <v>1.011363563548576</v>
       </c>
       <c r="E24">
-        <v>1.011813632279936</v>
+        <v>1.012908132977416</v>
       </c>
       <c r="F24">
-        <v>1.019556343840731</v>
+        <v>1.020424328791891</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043389642366442</v>
+        <v>1.043882262681329</v>
       </c>
       <c r="J24">
-        <v>1.02325460543901</v>
+        <v>1.024484697123349</v>
       </c>
       <c r="K24">
-        <v>1.024064928308226</v>
+        <v>1.025194018380227</v>
       </c>
       <c r="L24">
-        <v>1.025636415551508</v>
+        <v>1.026712296875144</v>
       </c>
       <c r="M24">
-        <v>1.033248516749</v>
+        <v>1.034102018986649</v>
       </c>
       <c r="N24">
-        <v>1.010993777952667</v>
+        <v>1.013383375447422</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034886339070677</v>
+        <v>1.035561833858408</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028137898014919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028950194901159</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018786140858478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003582764715753</v>
+        <v>1.004246618472599</v>
       </c>
       <c r="D25">
-        <v>1.016119266974313</v>
+        <v>1.016510438484302</v>
       </c>
       <c r="E25">
-        <v>1.018119843159729</v>
+        <v>1.018706599156548</v>
       </c>
       <c r="F25">
-        <v>1.025585466788016</v>
+        <v>1.026046256983272</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044908108975542</v>
+        <v>1.04519012184733</v>
       </c>
       <c r="J25">
-        <v>1.027990153209589</v>
+        <v>1.028631907296672</v>
       </c>
       <c r="K25">
-        <v>1.028472401323542</v>
+        <v>1.02885774583154</v>
       </c>
       <c r="L25">
-        <v>1.030443236234388</v>
+        <v>1.031021297463304</v>
       </c>
       <c r="M25">
-        <v>1.037799172681976</v>
+        <v>1.038253259137605</v>
       </c>
       <c r="N25">
-        <v>1.012673395943713</v>
+        <v>1.014493227503865</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038487897323664</v>
+        <v>1.038847277224362</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031251369293702</v>
+        <v>1.031537462782412</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019644697038256</v>
       </c>
     </row>
   </sheetData>
